--- a/ALLBIKEDATA.xlsx
+++ b/ALLBIKEDATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etinoelle/Documents/Project/Input Data Generator EB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2079A3E5-37E5-3644-8F95-299AEBBCC0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18473A4D-B349-994A-950F-4228AA3AC5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{A302DBF0-B5E9-B84B-8EF7-166040813F3B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" activeTab="2" xr2:uid="{A302DBF0-B5E9-B84B-8EF7-166040813F3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Precedences" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2987" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="647">
   <si>
     <t>Tasks</t>
   </si>
@@ -1733,18 +1733,6 @@
   </si>
   <si>
     <t>Boundaries</t>
-  </si>
-  <si>
-    <t>Bike_Type</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>e</t>
   </si>
   <si>
     <t>1150,1160</t>
@@ -2809,8 +2797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8408B766-6748-AA40-86AF-A2828BC2FBA7}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3088,7 +3076,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D8" s="18">
         <v>70</v>
@@ -3100,7 +3088,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="69" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="H8" s="18">
         <v>70</v>
@@ -3148,7 +3136,7 @@
         <v>8</v>
       </c>
       <c r="K9" s="69" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="L9" s="1">
         <v>70</v>
@@ -3284,7 +3272,7 @@
         <v>355</v>
       </c>
       <c r="G13" s="69" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="H13" s="18">
         <v>100</v>
@@ -3498,7 +3486,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D19" s="18">
         <v>90</v>
@@ -3548,7 +3536,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="69" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="H20" s="18">
         <v>90</v>
@@ -3560,7 +3548,7 @@
         <v>19</v>
       </c>
       <c r="K20" s="69" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="L20" s="1">
         <v>90</v>
@@ -3650,7 +3638,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="69" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D23" s="18">
         <v>170</v>
@@ -3700,7 +3688,7 @@
         <v>23</v>
       </c>
       <c r="G24" s="69" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="H24" s="18">
         <v>170</v>
@@ -3750,7 +3738,7 @@
         <v>23</v>
       </c>
       <c r="K25" s="69" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="L25" s="1">
         <v>170</v>
@@ -3810,7 +3798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BFA52B-35C8-FA46-8087-D26AF799193A}">
   <dimension ref="A1:AH371"/>
   <sheetViews>
-    <sheetView zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W45" sqref="W45"/>
     </sheetView>
   </sheetViews>
@@ -4322,7 +4310,7 @@
     </row>
     <row r="11" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="68" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B11" s="68"/>
       <c r="C11" s="68"/>
@@ -5798,7 +5786,7 @@
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D43" s="52"/>
       <c r="E43" s="49" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F43" s="52">
         <v>1</v>
@@ -5820,7 +5808,7 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E44" s="49" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -5834,7 +5822,7 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E45" s="49" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -5849,7 +5837,7 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E46" s="49" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -5863,7 +5851,7 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E47" s="49" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -5877,7 +5865,7 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E48" s="49" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -5891,7 +5879,7 @@
     </row>
     <row r="49" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E49" s="49" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -5905,7 +5893,7 @@
     </row>
     <row r="50" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E50" s="49" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -5919,7 +5907,7 @@
     </row>
     <row r="51" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E51" s="49" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -5933,7 +5921,7 @@
     </row>
     <row r="52" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E52" s="49" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -5947,7 +5935,7 @@
     </row>
     <row r="53" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E53" s="49" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -5961,7 +5949,7 @@
     </row>
     <row r="54" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E54" s="49" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -5975,7 +5963,7 @@
     </row>
     <row r="55" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E55" s="49" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -5989,7 +5977,7 @@
     </row>
     <row r="56" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E56" s="49" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -6003,7 +5991,7 @@
     </row>
     <row r="57" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E57" s="49" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -6017,7 +6005,7 @@
     </row>
     <row r="58" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E58" s="49" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -6031,13 +6019,13 @@
     </row>
     <row r="59" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E59" s="49" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
       <c r="H59" s="49" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="I59">
         <v>160</v>
@@ -6045,7 +6033,7 @@
     </row>
     <row r="60" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E60" s="49" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -6059,7 +6047,7 @@
     </row>
     <row r="61" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E61" s="49" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -6073,7 +6061,7 @@
     </row>
     <row r="62" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E62" s="49" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -6087,7 +6075,7 @@
     </row>
     <row r="63" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E63" s="49" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -6101,7 +6089,7 @@
     </row>
     <row r="64" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E64" s="49" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -6115,7 +6103,7 @@
     </row>
     <row r="65" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E65" s="49" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -6129,7 +6117,7 @@
     </row>
     <row r="66" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E66" s="49" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -6143,7 +6131,7 @@
     </row>
     <row r="67" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E67" s="49" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -6157,13 +6145,13 @@
     </row>
     <row r="68" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E68" s="49" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F68">
         <v>1</v>
       </c>
       <c r="H68" s="49" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="I68">
         <v>120</v>
@@ -6171,7 +6159,7 @@
     </row>
     <row r="69" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E69" s="49" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -6185,7 +6173,7 @@
     </row>
     <row r="70" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E70" s="49" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -6199,7 +6187,7 @@
     </row>
     <row r="71" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E71" s="49" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -6213,7 +6201,7 @@
     </row>
     <row r="72" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E72" s="49" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -6227,7 +6215,7 @@
     </row>
     <row r="73" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E73" s="49" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -6241,7 +6229,7 @@
     </row>
     <row r="74" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E74" s="49" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -6255,7 +6243,7 @@
     </row>
     <row r="75" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E75" s="49" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -6269,7 +6257,7 @@
     </row>
     <row r="76" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E76" s="49" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -6283,7 +6271,7 @@
     </row>
     <row r="77" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E77" s="49" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -6297,7 +6285,7 @@
     </row>
     <row r="78" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E78" s="49" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -6311,7 +6299,7 @@
     </row>
     <row r="79" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E79" s="49" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -6325,7 +6313,7 @@
     </row>
     <row r="80" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E80" s="49" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -6339,7 +6327,7 @@
     </row>
     <row r="81" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E81" s="49" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -6353,7 +6341,7 @@
     </row>
     <row r="82" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E82" s="49" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -6367,7 +6355,7 @@
     </row>
     <row r="83" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E83" s="49" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -6381,7 +6369,7 @@
     </row>
     <row r="84" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E84" s="49" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -6395,7 +6383,7 @@
     </row>
     <row r="85" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E85" s="49" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -6409,7 +6397,7 @@
     </row>
     <row r="86" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E86" s="49" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -6423,7 +6411,7 @@
     </row>
     <row r="87" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E87" s="49" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -6437,7 +6425,7 @@
     </row>
     <row r="88" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E88" s="49" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -6451,7 +6439,7 @@
     </row>
     <row r="89" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E89" s="49" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -6465,7 +6453,7 @@
     </row>
     <row r="90" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E90" s="49" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -6479,7 +6467,7 @@
     </row>
     <row r="91" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E91" s="49" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -6507,7 +6495,7 @@
     </row>
     <row r="93" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E93" s="49" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -6521,7 +6509,7 @@
     </row>
     <row r="94" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E94" s="49" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -6535,7 +6523,7 @@
     </row>
     <row r="95" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E95" s="49" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -6549,7 +6537,7 @@
     </row>
     <row r="96" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E96" s="49" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -6563,7 +6551,7 @@
     </row>
     <row r="97" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E97" s="49" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -6577,7 +6565,7 @@
     </row>
     <row r="98" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E98" s="49" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -6591,7 +6579,7 @@
     </row>
     <row r="99" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E99" s="49" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -6599,7 +6587,7 @@
     </row>
     <row r="100" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E100" s="49" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -6607,7 +6595,7 @@
     </row>
     <row r="101" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E101" s="49" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -6615,7 +6603,7 @@
     </row>
     <row r="102" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E102" s="49" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -6623,7 +6611,7 @@
     </row>
     <row r="103" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E103" s="49" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -6631,7 +6619,7 @@
     </row>
     <row r="104" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E104" s="49" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -6639,7 +6627,7 @@
     </row>
     <row r="105" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E105" s="49" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -6647,7 +6635,7 @@
     </row>
     <row r="106" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E106" s="49" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -6655,7 +6643,7 @@
     </row>
     <row r="107" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E107" s="49" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -6663,7 +6651,7 @@
     </row>
     <row r="108" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E108" s="49" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -6671,7 +6659,7 @@
     </row>
     <row r="109" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E109" s="49" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -6679,7 +6667,7 @@
     </row>
     <row r="110" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E110" s="49" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -6687,7 +6675,7 @@
     </row>
     <row r="111" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E111" s="49" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -6695,7 +6683,7 @@
     </row>
     <row r="112" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E112" s="49" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -6703,7 +6691,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E113" s="49" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -6711,7 +6699,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E114" s="49" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -8769,10 +8757,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A4C953-37ED-1E40-9061-1998489E7FF8}">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8790,15 +8778,8 @@
       <c r="D1" s="48" t="s">
         <v>359</v>
       </c>
-      <c r="F1" t="s">
-        <v>562</v>
-      </c>
-      <c r="G1" s="48" t="s">
-        <v>564</v>
-      </c>
-      <c r="H1" s="48" t="s">
-        <v>27</v>
-      </c>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
       <c r="K1" s="48" t="s">
@@ -8824,15 +8805,6 @@
       <c r="D2">
         <v>160</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>565</v>
-      </c>
-      <c r="H2">
-        <v>160</v>
-      </c>
       <c r="K2">
         <v>170</v>
       </c>
@@ -8856,15 +8828,6 @@
       <c r="D3">
         <v>140</v>
       </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>565</v>
-      </c>
-      <c r="H3">
-        <v>140</v>
-      </c>
       <c r="K3">
         <v>150</v>
       </c>
@@ -8888,15 +8851,6 @@
       <c r="D4">
         <v>120</v>
       </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>565</v>
-      </c>
-      <c r="H4">
-        <v>120</v>
-      </c>
       <c r="K4">
         <v>140</v>
       </c>
@@ -8920,15 +8874,6 @@
       <c r="D5">
         <v>130</v>
       </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>565</v>
-      </c>
-      <c r="H5">
-        <v>130</v>
-      </c>
       <c r="K5">
         <v>90</v>
       </c>
@@ -8950,15 +8895,6 @@
         <v>120</v>
       </c>
       <c r="D6">
-        <v>120</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>565</v>
-      </c>
-      <c r="H6">
         <v>120</v>
       </c>
       <c r="K6">
@@ -8984,15 +8920,6 @@
       <c r="D7">
         <v>120</v>
       </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>565</v>
-      </c>
-      <c r="H7">
-        <v>120</v>
-      </c>
       <c r="K7">
         <v>130</v>
       </c>
@@ -9017,15 +8944,6 @@
         <f>90+120</f>
         <v>210</v>
       </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>565</v>
-      </c>
-      <c r="H8">
-        <v>90</v>
-      </c>
       <c r="K8">
         <v>160</v>
       </c>
@@ -9049,15 +8967,6 @@
       <c r="D9">
         <v>170</v>
       </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>565</v>
-      </c>
-      <c r="H9">
-        <v>170</v>
-      </c>
       <c r="K9">
         <v>170</v>
       </c>
@@ -9081,15 +8990,6 @@
       <c r="D10">
         <v>150</v>
       </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>565</v>
-      </c>
-      <c r="H10">
-        <v>150</v>
-      </c>
       <c r="K10">
         <v>120</v>
       </c>
@@ -9113,15 +9013,6 @@
       <c r="D11">
         <v>150</v>
       </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>565</v>
-      </c>
-      <c r="H11">
-        <v>150</v>
-      </c>
       <c r="K11">
         <v>120</v>
       </c>
@@ -9145,15 +9036,6 @@
       <c r="D12">
         <v>150</v>
       </c>
-      <c r="F12">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>565</v>
-      </c>
-      <c r="H12">
-        <v>150</v>
-      </c>
       <c r="K12">
         <v>70</v>
       </c>
@@ -9177,15 +9059,6 @@
       <c r="D13">
         <v>160</v>
       </c>
-      <c r="F13">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>565</v>
-      </c>
-      <c r="H13">
-        <v>160</v>
-      </c>
       <c r="K13">
         <v>150</v>
       </c>
@@ -9209,15 +9082,6 @@
       <c r="D14">
         <v>150</v>
       </c>
-      <c r="F14">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>565</v>
-      </c>
-      <c r="H14">
-        <v>150</v>
-      </c>
       <c r="K14">
         <v>150</v>
       </c>
@@ -9241,15 +9105,6 @@
       <c r="D15">
         <v>120</v>
       </c>
-      <c r="F15">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>565</v>
-      </c>
-      <c r="H15">
-        <v>120</v>
-      </c>
       <c r="K15">
         <v>150</v>
       </c>
@@ -9273,15 +9128,6 @@
       <c r="D16">
         <v>150</v>
       </c>
-      <c r="F16">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>565</v>
-      </c>
-      <c r="H16">
-        <v>150</v>
-      </c>
       <c r="K16">
         <v>60</v>
       </c>
@@ -9305,15 +9151,6 @@
       <c r="D17">
         <v>170</v>
       </c>
-      <c r="F17">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>565</v>
-      </c>
-      <c r="H17">
-        <v>170</v>
-      </c>
       <c r="K17">
         <v>170</v>
       </c>
@@ -9337,15 +9174,6 @@
       <c r="D18">
         <v>170</v>
       </c>
-      <c r="F18">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>565</v>
-      </c>
-      <c r="H18">
-        <v>100</v>
-      </c>
       <c r="K18">
         <v>70</v>
       </c>
@@ -9369,15 +9197,6 @@
       <c r="D19">
         <v>120</v>
       </c>
-      <c r="F19">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>565</v>
-      </c>
-      <c r="H19">
-        <v>120</v>
-      </c>
       <c r="K19">
         <v>120</v>
       </c>
@@ -9385,403 +9204,6 @@
         <v>120</v>
       </c>
       <c r="M19">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>566</v>
-      </c>
-      <c r="H20">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21" t="s">
-        <v>566</v>
-      </c>
-      <c r="H21">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22" t="s">
-        <v>566</v>
-      </c>
-      <c r="H22">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F23">
-        <v>4</v>
-      </c>
-      <c r="G23" t="s">
-        <v>566</v>
-      </c>
-      <c r="H23">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F24">
-        <v>5</v>
-      </c>
-      <c r="G24" t="s">
-        <v>566</v>
-      </c>
-      <c r="H24">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F25">
-        <v>6</v>
-      </c>
-      <c r="G25" t="s">
-        <v>566</v>
-      </c>
-      <c r="H25">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F26">
-        <v>7</v>
-      </c>
-      <c r="G26" t="s">
-        <v>566</v>
-      </c>
-      <c r="H26">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F27">
-        <v>8</v>
-      </c>
-      <c r="G27" t="s">
-        <v>566</v>
-      </c>
-      <c r="H27">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F28">
-        <v>9</v>
-      </c>
-      <c r="G28" t="s">
-        <v>566</v>
-      </c>
-      <c r="H28">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F29">
-        <v>10</v>
-      </c>
-      <c r="G29" t="s">
-        <v>566</v>
-      </c>
-      <c r="H29">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F30">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s">
-        <v>566</v>
-      </c>
-      <c r="H30">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F31">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>566</v>
-      </c>
-      <c r="H31">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F32">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s">
-        <v>566</v>
-      </c>
-      <c r="H32">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F33">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>566</v>
-      </c>
-      <c r="H33">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F34">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s">
-        <v>566</v>
-      </c>
-      <c r="H34">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F35">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>566</v>
-      </c>
-      <c r="H35">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F36">
-        <v>17</v>
-      </c>
-      <c r="G36" t="s">
-        <v>566</v>
-      </c>
-      <c r="H36">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F37">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>566</v>
-      </c>
-      <c r="H37">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="s">
-        <v>567</v>
-      </c>
-      <c r="H38">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="39" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F39">
-        <v>2</v>
-      </c>
-      <c r="G39" t="s">
-        <v>567</v>
-      </c>
-      <c r="H39">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F40">
-        <v>3</v>
-      </c>
-      <c r="G40" t="s">
-        <v>567</v>
-      </c>
-      <c r="H40">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F41">
-        <v>4</v>
-      </c>
-      <c r="G41" t="s">
-        <v>567</v>
-      </c>
-      <c r="H41">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F42">
-        <v>5</v>
-      </c>
-      <c r="G42" t="s">
-        <v>567</v>
-      </c>
-      <c r="H42">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F43">
-        <v>6</v>
-      </c>
-      <c r="G43" t="s">
-        <v>567</v>
-      </c>
-      <c r="H43">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F44">
-        <v>7</v>
-      </c>
-      <c r="G44" t="s">
-        <v>567</v>
-      </c>
-      <c r="H44">
-        <f>90+120</f>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="45" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F45">
-        <v>8</v>
-      </c>
-      <c r="G45" t="s">
-        <v>567</v>
-      </c>
-      <c r="H45">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="46" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F46">
-        <v>9</v>
-      </c>
-      <c r="G46" t="s">
-        <v>567</v>
-      </c>
-      <c r="H46">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F47">
-        <v>10</v>
-      </c>
-      <c r="G47" t="s">
-        <v>567</v>
-      </c>
-      <c r="H47">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F48">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s">
-        <v>567</v>
-      </c>
-      <c r="H48">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F49">
-        <v>12</v>
-      </c>
-      <c r="G49" t="s">
-        <v>567</v>
-      </c>
-      <c r="H49">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F50">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s">
-        <v>567</v>
-      </c>
-      <c r="H50">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F51">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>567</v>
-      </c>
-      <c r="H51">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F52">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s">
-        <v>567</v>
-      </c>
-      <c r="H52">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F53">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s">
-        <v>567</v>
-      </c>
-      <c r="H53">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F54">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s">
-        <v>567</v>
-      </c>
-      <c r="H54">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F55">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>567</v>
-      </c>
-      <c r="H55">
         <v>120</v>
       </c>
     </row>

--- a/ALLBIKEDATA.xlsx
+++ b/ALLBIKEDATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etinoelle/Documents/Project/Input Data Generator EB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18473A4D-B349-994A-950F-4228AA3AC5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F00AB8-813F-5E44-8222-1F9F5FF59253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" activeTab="2" xr2:uid="{A302DBF0-B5E9-B84B-8EF7-166040813F3B}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Work Plan" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Task Relations'!$E$42:$F$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Task Relations'!$E$28:$F$103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Work Plan'!$A$1:$O$342</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2920" uniqueCount="647">
   <si>
     <t>Tasks</t>
   </si>
@@ -2367,7 +2367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2453,9 +2453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2807,9 +2805,9 @@
     <col min="2" max="2" width="58.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="58.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="70" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" style="68" customWidth="1"/>
     <col min="10" max="10" width="58.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.5" style="70" customWidth="1"/>
+    <col min="11" max="11" width="25.5" style="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -2831,7 +2829,7 @@
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="69" t="s">
         <v>26</v>
       </c>
       <c r="H1" s="31" t="s">
@@ -2843,7 +2841,7 @@
       <c r="J1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="72" t="s">
+      <c r="K1" s="70" t="s">
         <v>26</v>
       </c>
       <c r="L1" s="16" t="s">
@@ -2857,7 +2855,7 @@
       <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="69"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="18">
         <v>70</v>
       </c>
@@ -2867,7 +2865,7 @@
       <c r="F2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="69"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="18">
         <v>70</v>
       </c>
@@ -2877,7 +2875,7 @@
       <c r="J2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="69"/>
+      <c r="K2" s="67"/>
       <c r="L2" s="1">
         <v>70</v>
       </c>
@@ -2889,7 +2887,7 @@
       <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="69">
+      <c r="C3" s="67">
         <v>1100</v>
       </c>
       <c r="D3" s="18">
@@ -2901,7 +2899,7 @@
       <c r="F3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="69">
+      <c r="G3" s="67">
         <v>2100</v>
       </c>
       <c r="H3" s="18">
@@ -2913,7 +2911,7 @@
       <c r="J3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="69">
+      <c r="K3" s="67">
         <v>3100</v>
       </c>
       <c r="L3" s="1">
@@ -2927,7 +2925,7 @@
       <c r="B4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="69">
+      <c r="C4" s="67">
         <v>1110</v>
       </c>
       <c r="D4" s="18">
@@ -2939,7 +2937,7 @@
       <c r="F4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="69">
+      <c r="G4" s="67">
         <v>2110</v>
       </c>
       <c r="H4" s="18">
@@ -2951,7 +2949,7 @@
       <c r="J4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="69">
+      <c r="K4" s="67">
         <v>3110</v>
       </c>
       <c r="L4" s="1">
@@ -2965,7 +2963,7 @@
       <c r="B5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="69">
+      <c r="C5" s="67">
         <v>1120</v>
       </c>
       <c r="D5" s="18">
@@ -2977,7 +2975,7 @@
       <c r="F5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="69">
+      <c r="G5" s="67">
         <v>2120</v>
       </c>
       <c r="H5" s="18">
@@ -2989,7 +2987,7 @@
       <c r="J5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="69">
+      <c r="K5" s="67">
         <v>3120</v>
       </c>
       <c r="L5" s="1">
@@ -3003,7 +3001,7 @@
       <c r="B6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="69">
+      <c r="C6" s="67">
         <v>1140</v>
       </c>
       <c r="D6" s="18">
@@ -3015,7 +3013,7 @@
       <c r="F6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="69">
+      <c r="G6" s="67">
         <v>2140</v>
       </c>
       <c r="H6" s="18">
@@ -3027,7 +3025,7 @@
       <c r="J6" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="K6" s="69">
+      <c r="K6" s="67">
         <v>3140</v>
       </c>
       <c r="L6" s="1">
@@ -3041,7 +3039,7 @@
       <c r="B7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="69"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="18">
         <v>100</v>
       </c>
@@ -3051,7 +3049,7 @@
       <c r="F7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="69"/>
+      <c r="G7" s="67"/>
       <c r="H7" s="18">
         <v>100</v>
       </c>
@@ -3061,7 +3059,7 @@
       <c r="J7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="69">
+      <c r="K7" s="67">
         <v>3140</v>
       </c>
       <c r="L7" s="1">
@@ -3075,7 +3073,7 @@
       <c r="B8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="67" t="s">
         <v>564</v>
       </c>
       <c r="D8" s="18">
@@ -3087,7 +3085,7 @@
       <c r="F8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="69" t="s">
+      <c r="G8" s="67" t="s">
         <v>567</v>
       </c>
       <c r="H8" s="18">
@@ -3099,7 +3097,7 @@
       <c r="J8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="69"/>
+      <c r="K8" s="67"/>
       <c r="L8" s="1">
         <v>100</v>
       </c>
@@ -3111,7 +3109,7 @@
       <c r="B9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="69">
+      <c r="C9" s="67">
         <v>1110</v>
       </c>
       <c r="D9" s="18">
@@ -3123,7 +3121,7 @@
       <c r="F9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="69">
+      <c r="G9" s="67">
         <v>2110</v>
       </c>
       <c r="H9" s="18">
@@ -3135,7 +3133,7 @@
       <c r="J9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="69" t="s">
+      <c r="K9" s="67" t="s">
         <v>570</v>
       </c>
       <c r="L9" s="1">
@@ -3149,7 +3147,7 @@
       <c r="B10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="69">
+      <c r="C10" s="67">
         <v>1180</v>
       </c>
       <c r="D10" s="18">
@@ -3161,7 +3159,7 @@
       <c r="F10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="69">
+      <c r="G10" s="67">
         <v>2180</v>
       </c>
       <c r="H10" s="18">
@@ -3173,7 +3171,7 @@
       <c r="J10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="69">
+      <c r="K10" s="67">
         <v>3110</v>
       </c>
       <c r="L10" s="1">
@@ -3187,7 +3185,7 @@
       <c r="B11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="69">
+      <c r="C11" s="67">
         <v>1190</v>
       </c>
       <c r="D11" s="18">
@@ -3199,7 +3197,7 @@
       <c r="F11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="69">
+      <c r="G11" s="67">
         <v>2190</v>
       </c>
       <c r="H11" s="18">
@@ -3211,7 +3209,7 @@
       <c r="J11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="69">
+      <c r="K11" s="67">
         <v>3180</v>
       </c>
       <c r="L11" s="1">
@@ -3225,7 +3223,7 @@
       <c r="B12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="69"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="18">
         <v>90</v>
       </c>
@@ -3235,7 +3233,7 @@
       <c r="F12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="69"/>
+      <c r="G12" s="67"/>
       <c r="H12" s="18">
         <v>90</v>
       </c>
@@ -3245,7 +3243,7 @@
       <c r="J12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="69">
+      <c r="K12" s="67">
         <v>3190</v>
       </c>
       <c r="L12" s="1">
@@ -3259,7 +3257,7 @@
       <c r="B13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="69">
+      <c r="C13" s="67">
         <v>1190</v>
       </c>
       <c r="D13" s="18">
@@ -3271,7 +3269,7 @@
       <c r="F13" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="G13" s="69" t="s">
+      <c r="G13" s="67" t="s">
         <v>567</v>
       </c>
       <c r="H13" s="18">
@@ -3283,7 +3281,7 @@
       <c r="J13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="69"/>
+      <c r="K13" s="67"/>
       <c r="L13" s="1">
         <v>90</v>
       </c>
@@ -3295,7 +3293,7 @@
       <c r="B14" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="69">
+      <c r="C14" s="67">
         <v>1240</v>
       </c>
       <c r="D14" s="18">
@@ -3307,7 +3305,7 @@
       <c r="F14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="69">
+      <c r="G14" s="67">
         <v>2190</v>
       </c>
       <c r="H14" s="18">
@@ -3319,7 +3317,7 @@
       <c r="J14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="69">
+      <c r="K14" s="67">
         <v>3190</v>
       </c>
       <c r="L14" s="1">
@@ -3333,7 +3331,7 @@
       <c r="B15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="69">
+      <c r="C15" s="67">
         <v>1170</v>
       </c>
       <c r="D15" s="18">
@@ -3345,7 +3343,7 @@
       <c r="F15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="69">
+      <c r="G15" s="67">
         <v>2240</v>
       </c>
       <c r="H15" s="18">
@@ -3357,7 +3355,7 @@
       <c r="J15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="69">
+      <c r="K15" s="67">
         <v>3240</v>
       </c>
       <c r="L15" s="1">
@@ -3371,7 +3369,7 @@
       <c r="B16" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="69">
+      <c r="C16" s="67">
         <v>1260</v>
       </c>
       <c r="D16" s="18">
@@ -3383,7 +3381,7 @@
       <c r="F16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="69">
+      <c r="G16" s="67">
         <v>2170</v>
       </c>
       <c r="H16" s="18">
@@ -3395,7 +3393,7 @@
       <c r="J16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="69">
+      <c r="K16" s="67">
         <v>3170</v>
       </c>
       <c r="L16" s="1">
@@ -3409,7 +3407,7 @@
       <c r="B17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="69">
+      <c r="C17" s="67">
         <v>1100</v>
       </c>
       <c r="D17" s="18">
@@ -3421,7 +3419,7 @@
       <c r="F17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="69">
+      <c r="G17" s="67">
         <v>2260</v>
       </c>
       <c r="H17" s="18">
@@ -3433,7 +3431,7 @@
       <c r="J17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="69">
+      <c r="K17" s="67">
         <v>3260</v>
       </c>
       <c r="L17" s="1">
@@ -3447,7 +3445,7 @@
       <c r="B18" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="69">
+      <c r="C18" s="67">
         <v>1280</v>
       </c>
       <c r="D18" s="18">
@@ -3459,7 +3457,7 @@
       <c r="F18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="69">
+      <c r="G18" s="67">
         <v>2100</v>
       </c>
       <c r="H18" s="18">
@@ -3471,7 +3469,7 @@
       <c r="J18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="69">
+      <c r="K18" s="67">
         <v>3100</v>
       </c>
       <c r="L18" s="1">
@@ -3485,7 +3483,7 @@
       <c r="B19" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="67" t="s">
         <v>565</v>
       </c>
       <c r="D19" s="18">
@@ -3497,7 +3495,7 @@
       <c r="F19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="69">
+      <c r="G19" s="67">
         <v>2280</v>
       </c>
       <c r="H19" s="18">
@@ -3509,7 +3507,7 @@
       <c r="J19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="69">
+      <c r="K19" s="67">
         <v>3280</v>
       </c>
       <c r="L19" s="1">
@@ -3523,7 +3521,7 @@
       <c r="B20" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="69">
+      <c r="C20" s="67">
         <v>1300</v>
       </c>
       <c r="D20" s="18">
@@ -3535,7 +3533,7 @@
       <c r="F20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="69" t="s">
+      <c r="G20" s="67" t="s">
         <v>568</v>
       </c>
       <c r="H20" s="18">
@@ -3547,7 +3545,7 @@
       <c r="J20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="69" t="s">
+      <c r="K20" s="67" t="s">
         <v>571</v>
       </c>
       <c r="L20" s="1">
@@ -3561,7 +3559,7 @@
       <c r="B21" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="69">
+      <c r="C21" s="67">
         <v>1310</v>
       </c>
       <c r="D21" s="18">
@@ -3573,7 +3571,7 @@
       <c r="F21" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="69">
+      <c r="G21" s="67">
         <v>2300</v>
       </c>
       <c r="H21" s="18">
@@ -3585,7 +3583,7 @@
       <c r="J21" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="69">
+      <c r="K21" s="67">
         <v>3300</v>
       </c>
       <c r="L21" s="1">
@@ -3599,7 +3597,7 @@
       <c r="B22" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="69">
+      <c r="C22" s="67">
         <v>1250</v>
       </c>
       <c r="D22" s="18">
@@ -3611,7 +3609,7 @@
       <c r="F22" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="69">
+      <c r="G22" s="67">
         <v>2310</v>
       </c>
       <c r="H22" s="18">
@@ -3623,7 +3621,7 @@
       <c r="J22" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="69">
+      <c r="K22" s="67">
         <v>3310</v>
       </c>
       <c r="L22" s="1">
@@ -3637,7 +3635,7 @@
       <c r="B23" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="67" t="s">
         <v>566</v>
       </c>
       <c r="D23" s="18">
@@ -3649,7 +3647,7 @@
       <c r="F23" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="69">
+      <c r="G23" s="67">
         <v>2250</v>
       </c>
       <c r="H23" s="18">
@@ -3661,7 +3659,7 @@
       <c r="J23" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="69">
+      <c r="K23" s="67">
         <v>3250</v>
       </c>
       <c r="L23" s="1">
@@ -3675,7 +3673,7 @@
       <c r="B24" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="69">
+      <c r="C24" s="67">
         <v>1350</v>
       </c>
       <c r="D24" s="18">
@@ -3687,7 +3685,7 @@
       <c r="F24" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="69" t="s">
+      <c r="G24" s="67" t="s">
         <v>569</v>
       </c>
       <c r="H24" s="18">
@@ -3699,7 +3697,7 @@
       <c r="J24" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="K24" s="69">
+      <c r="K24" s="67">
         <v>3140</v>
       </c>
       <c r="L24" s="1">
@@ -3713,7 +3711,7 @@
       <c r="B25" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="69">
+      <c r="C25" s="67">
         <v>1360</v>
       </c>
       <c r="D25" s="18">
@@ -3725,7 +3723,7 @@
       <c r="F25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="69">
+      <c r="G25" s="67">
         <v>2350</v>
       </c>
       <c r="H25" s="18">
@@ -3737,7 +3735,7 @@
       <c r="J25" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="69" t="s">
+      <c r="K25" s="67" t="s">
         <v>572</v>
       </c>
       <c r="L25" s="1">
@@ -3745,14 +3743,14 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="70"/>
+      <c r="C26" s="68"/>
       <c r="E26" s="25">
         <v>2370</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="69">
+      <c r="G26" s="67">
         <v>2360</v>
       </c>
       <c r="H26" s="18">
@@ -3764,7 +3762,7 @@
       <c r="J26" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="K26" s="69">
+      <c r="K26" s="67">
         <v>3350</v>
       </c>
       <c r="L26" s="1">
@@ -3778,7 +3776,7 @@
       <c r="J27" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K27" s="69">
+      <c r="K27" s="67">
         <v>3360</v>
       </c>
       <c r="L27" s="1">
@@ -3796,10 +3794,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BFA52B-35C8-FA46-8087-D26AF799193A}">
-  <dimension ref="A1:AH371"/>
+  <dimension ref="A1:AH357"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W45" sqref="W45"/>
+    <sheetView topLeftCell="A3" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3891,7 +3889,7 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="65" t="s">
         <v>357</v>
       </c>
       <c r="B2" s="37">
@@ -3968,7 +3966,7 @@
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A3" s="67"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -3996,7 +3994,7 @@
       <c r="AH3" s="55"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A4" s="67"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -4024,7 +4022,7 @@
       <c r="AH4" s="55"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="65" t="s">
         <v>358</v>
       </c>
       <c r="B5" s="41">
@@ -4104,7 +4102,7 @@
       <c r="AH5" s="55"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A6" s="67"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
@@ -4135,7 +4133,7 @@
       <c r="AD6" s="49"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -4164,7 +4162,7 @@
       <c r="AD7" s="49"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="65" t="s">
         <v>359</v>
       </c>
       <c r="B8" s="39">
@@ -4243,7 +4241,7 @@
       <c r="AD8" s="49"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
       <c r="D9" s="39"/>
@@ -4281,7 +4279,7 @@
       <c r="AD9" s="49"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A10" s="67"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="42"/>
@@ -4309,34 +4307,34 @@
       <c r="AD10" s="49"/>
     </row>
     <row r="11" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="66" t="s">
         <v>646</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="68"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
       <c r="U11" s="57"/>
       <c r="V11" s="57"/>
       <c r="W11" s="57"/>
       <c r="X11" s="57"/>
       <c r="Y11" s="57"/>
-      <c r="AD11" s="62"/>
+      <c r="AD11" s="60"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -4404,53 +4402,53 @@
       <c r="AD12" s="49"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="65" t="s">
         <v>357</v>
       </c>
       <c r="B13" s="37">
         <v>1100</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13">
+        <v>1280</v>
+      </c>
+      <c r="D13" s="44">
         <v>1110</v>
       </c>
-      <c r="D13" s="44">
+      <c r="E13" s="44">
+        <v>1210</v>
+      </c>
+      <c r="F13" s="44">
         <v>1190</v>
       </c>
-      <c r="E13" s="44">
+      <c r="G13" s="54">
         <v>1120</v>
-      </c>
-      <c r="F13" s="44">
-        <v>1140</v>
-      </c>
-      <c r="G13" s="54">
-        <v>1150</v>
       </c>
       <c r="H13" s="44">
         <v>1240</v>
       </c>
       <c r="I13" s="44">
-        <v>1160</v>
+        <v>1140</v>
       </c>
       <c r="J13" s="44">
-        <v>1250</v>
+        <v>1150</v>
       </c>
       <c r="K13" s="44">
-        <v>1200</v>
+        <v>1330</v>
       </c>
       <c r="L13" s="44">
-        <v>1280</v>
+        <v>1170</v>
       </c>
       <c r="M13" s="44">
+        <v>1260</v>
+      </c>
+      <c r="N13" s="44">
+        <v>1270</v>
+      </c>
+      <c r="O13" s="44">
+        <v>1290</v>
+      </c>
+      <c r="P13" s="44">
         <v>1320</v>
-      </c>
-      <c r="N13" s="44">
-        <v>1260</v>
-      </c>
-      <c r="O13" s="44">
-        <v>1330</v>
-      </c>
-      <c r="P13" s="44">
-        <v>1270</v>
       </c>
       <c r="Q13" s="44">
         <v>1350</v>
@@ -4469,45 +4467,37 @@
       <c r="AD13" s="49"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A14" s="67"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="36">
-        <v>1210</v>
-      </c>
-      <c r="C14" s="36">
+        <v>1160</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36">
         <v>1180</v>
       </c>
-      <c r="D14" s="36"/>
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
       <c r="G14" s="53"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36">
-        <v>1170</v>
-      </c>
-      <c r="J14" s="36">
-        <v>3300</v>
-      </c>
-      <c r="K14" s="36">
-        <v>1310</v>
-      </c>
+      <c r="H14" s="36">
+        <v>1250</v>
+      </c>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
       <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36">
-        <v>1290</v>
-      </c>
+      <c r="M14" s="36">
+        <v>1300</v>
+      </c>
+      <c r="N14" s="36"/>
       <c r="O14" s="36"/>
       <c r="P14" s="36"/>
       <c r="Q14" s="36"/>
       <c r="S14" s="36"/>
       <c r="T14" s="52"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="27"/>
       <c r="AD14" s="49"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A15" s="67"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
@@ -4526,56 +4516,68 @@
       <c r="Q15" s="36"/>
       <c r="S15" s="36"/>
       <c r="T15" s="52"/>
-      <c r="AD15" s="49"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="52"/>
+      <c r="AD15" s="61"/>
+      <c r="AE15" s="52"/>
+      <c r="AF15" s="52"/>
+      <c r="AG15" s="52"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="65" t="s">
         <v>358</v>
       </c>
       <c r="B16" s="41">
         <v>2100</v>
       </c>
       <c r="C16" s="44">
+        <v>2280</v>
+      </c>
+      <c r="D16" s="44">
         <v>2110</v>
       </c>
-      <c r="D16" s="44">
+      <c r="E16" s="44">
+        <v>2210</v>
+      </c>
+      <c r="F16" s="44">
         <v>2190</v>
       </c>
-      <c r="E16" s="44">
+      <c r="G16" s="44">
         <v>2120</v>
-      </c>
-      <c r="F16" s="44">
-        <v>2140</v>
-      </c>
-      <c r="G16" s="44">
-        <v>2150</v>
       </c>
       <c r="H16" s="44">
         <v>2240</v>
       </c>
       <c r="I16" s="54">
-        <v>2160</v>
-      </c>
-      <c r="J16" s="59">
-        <v>2230</v>
+        <v>2140</v>
+      </c>
+      <c r="J16" s="54">
+        <v>2150</v>
       </c>
       <c r="K16" s="44">
-        <v>2200</v>
+        <v>2330</v>
       </c>
       <c r="L16" s="44">
-        <v>2280</v>
+        <v>2170</v>
       </c>
       <c r="M16" s="44">
+        <v>2260</v>
+      </c>
+      <c r="N16" s="44">
+        <v>2270</v>
+      </c>
+      <c r="O16" s="44">
+        <v>2290</v>
+      </c>
+      <c r="P16" s="54">
         <v>2320</v>
-      </c>
-      <c r="N16" s="44">
-        <v>2260</v>
-      </c>
-      <c r="O16" s="44">
-        <v>2330</v>
-      </c>
-      <c r="P16" s="54">
-        <v>2270</v>
       </c>
       <c r="Q16" s="44">
         <v>2350</v>
@@ -4587,7 +4589,7 @@
         <v>2370</v>
       </c>
       <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
+      <c r="U16" s="61"/>
       <c r="V16" s="52"/>
       <c r="W16" s="52"/>
       <c r="X16" s="52"/>
@@ -4596,44 +4598,42 @@
       <c r="AA16" s="52"/>
       <c r="AB16" s="52"/>
       <c r="AC16" s="52"/>
-      <c r="AD16" s="63"/>
+      <c r="AD16" s="61"/>
       <c r="AE16" s="52"/>
       <c r="AF16" s="52"/>
       <c r="AG16" s="52"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A17" s="67"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="36">
-        <v>2210</v>
-      </c>
-      <c r="C17" s="36">
+        <v>2160</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="52">
         <v>2180</v>
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="36"/>
       <c r="G17" s="39"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="36">
-        <v>2170</v>
-      </c>
-      <c r="J17" s="36">
+      <c r="H17" s="53">
         <v>2250</v>
       </c>
-      <c r="K17">
-        <v>3300</v>
-      </c>
-      <c r="L17" s="36"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="36">
-        <v>2290</v>
-      </c>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="L17" s="59">
+        <v>2230</v>
+      </c>
+      <c r="M17" s="53">
+        <v>2300</v>
+      </c>
+      <c r="N17" s="36"/>
       <c r="O17" s="36"/>
       <c r="P17" s="53"/>
       <c r="Q17" s="36"/>
       <c r="R17" s="52"/>
       <c r="S17" s="36"/>
       <c r="T17" s="52"/>
-      <c r="U17" s="63"/>
+      <c r="U17" s="61"/>
       <c r="V17" s="52"/>
       <c r="W17" s="52"/>
       <c r="X17" s="52"/>
@@ -4642,13 +4642,13 @@
       <c r="AA17" s="52"/>
       <c r="AB17" s="52"/>
       <c r="AC17" s="52"/>
-      <c r="AD17" s="63"/>
+      <c r="AD17" s="61"/>
       <c r="AE17" s="52"/>
       <c r="AF17" s="52"/>
       <c r="AG17" s="52"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A18" s="67"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -4658,9 +4658,7 @@
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
-      <c r="K18" s="15">
-        <v>3310</v>
-      </c>
+      <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
@@ -4670,7 +4668,7 @@
       <c r="R18" s="40"/>
       <c r="S18" s="15"/>
       <c r="T18" s="52"/>
-      <c r="U18" s="63"/>
+      <c r="U18" s="61"/>
       <c r="V18" s="52"/>
       <c r="W18" s="52"/>
       <c r="X18" s="52"/>
@@ -4679,71 +4677,71 @@
       <c r="AA18" s="52"/>
       <c r="AB18" s="52"/>
       <c r="AC18" s="52"/>
-      <c r="AD18" s="63"/>
+      <c r="AD18" s="61"/>
       <c r="AE18" s="52"/>
       <c r="AF18" s="52"/>
       <c r="AG18" s="52"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="65" t="s">
         <v>359</v>
       </c>
       <c r="B19" s="39">
         <v>3100</v>
       </c>
       <c r="C19" s="44">
+        <v>3280</v>
+      </c>
+      <c r="D19" s="41">
         <v>3110</v>
       </c>
-      <c r="D19" s="41">
+      <c r="E19" s="44">
+        <v>3210</v>
+      </c>
+      <c r="F19" s="44">
         <v>3190</v>
       </c>
-      <c r="E19" s="44">
+      <c r="G19" s="58">
         <v>3120</v>
-      </c>
-      <c r="F19" s="44">
-        <v>3140</v>
-      </c>
-      <c r="G19" s="58">
-        <v>3150</v>
       </c>
       <c r="H19" s="44">
         <v>3240</v>
       </c>
       <c r="I19" s="54">
-        <v>3160</v>
+        <v>3140</v>
       </c>
       <c r="J19" s="53">
         <v>3250</v>
       </c>
       <c r="K19" s="44">
-        <v>3200</v>
+        <v>3330</v>
       </c>
       <c r="L19" s="53">
-        <v>3280</v>
+        <v>3170</v>
       </c>
       <c r="M19" s="54">
-        <v>3320</v>
+        <v>3260</v>
       </c>
       <c r="N19" s="41">
-        <v>3260</v>
+        <v>3270</v>
       </c>
       <c r="O19" s="44">
-        <v>3330</v>
-      </c>
-      <c r="P19" s="46">
-        <v>3270</v>
+        <v>3290</v>
+      </c>
+      <c r="P19" s="72">
+        <v>3130</v>
       </c>
       <c r="Q19" s="44">
         <v>3350</v>
       </c>
-      <c r="R19" s="61">
-        <v>3130</v>
+      <c r="R19" s="56">
+        <v>3360</v>
       </c>
       <c r="S19" s="44">
         <v>3370</v>
       </c>
       <c r="T19" s="52"/>
-      <c r="U19" s="63"/>
+      <c r="U19" s="61"/>
       <c r="V19" s="52"/>
       <c r="W19" s="52"/>
       <c r="X19" s="52"/>
@@ -4752,63 +4750,48 @@
       <c r="AA19" s="52"/>
       <c r="AB19" s="52"/>
       <c r="AC19" s="52"/>
-      <c r="AD19" s="63"/>
+      <c r="AD19" s="61"/>
       <c r="AE19" s="52"/>
       <c r="AF19" s="52"/>
       <c r="AG19" s="52"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A20" s="67"/>
+    <row r="20" spans="1:34" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="65"/>
       <c r="B20" s="36">
-        <v>3210</v>
-      </c>
-      <c r="C20" s="36">
+        <v>3160</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="39">
         <v>3180</v>
       </c>
-      <c r="D20" s="39"/>
       <c r="E20" s="36"/>
       <c r="F20" s="36"/>
       <c r="G20" s="45"/>
-      <c r="H20" s="60">
+      <c r="H20" s="53">
+        <v>3250</v>
+      </c>
+      <c r="I20" s="36"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="71">
         <v>3340</v>
       </c>
-      <c r="I20" s="36">
-        <v>3170</v>
-      </c>
-      <c r="J20" s="53">
-        <v>3300</v>
-      </c>
-      <c r="K20" s="53">
-        <v>3310</v>
-      </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36">
-        <v>3290</v>
-      </c>
+      <c r="M20" s="36">
+        <v>3330</v>
+      </c>
+      <c r="N20" s="36"/>
       <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
+      <c r="P20" s="36">
+        <v>3320</v>
+      </c>
       <c r="Q20" s="36"/>
-      <c r="R20" s="52">
-        <v>3360</v>
-      </c>
       <c r="S20" s="36"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="63"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="52"/>
-      <c r="AD20" s="63"/>
-      <c r="AE20" s="52"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="52"/>
-    </row>
-    <row r="21" spans="1:34" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="67"/>
+      <c r="U20" s="61"/>
+      <c r="AD20" s="61"/>
+      <c r="AH20"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A21" s="65"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="42"/>
@@ -4827,70 +4810,81 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="40"/>
       <c r="S21" s="15"/>
-      <c r="U21" s="63"/>
-      <c r="AD21" s="63"/>
-      <c r="AH21"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="52"/>
+      <c r="AD21" s="61"/>
+      <c r="AE21" s="52"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="52"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="48" t="s">
         <v>357</v>
       </c>
       <c r="B22">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C22">
+        <v>150</v>
+      </c>
+      <c r="D22">
         <v>140</v>
       </c>
-      <c r="D22">
-        <v>120</v>
-      </c>
       <c r="E22">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="F22">
         <v>120</v>
       </c>
       <c r="G22">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H22">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="I22">
         <v>170</v>
       </c>
       <c r="J22">
+        <v>120</v>
+      </c>
+      <c r="K22">
+        <v>120</v>
+      </c>
+      <c r="L22">
+        <v>70</v>
+      </c>
+      <c r="M22">
         <v>150</v>
-      </c>
-      <c r="K22">
-        <v>150</v>
-      </c>
-      <c r="L22">
-        <v>150</v>
-      </c>
-      <c r="M22">
-        <v>160</v>
       </c>
       <c r="N22">
         <v>150</v>
       </c>
       <c r="O22">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="P22">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="Q22">
         <v>170</v>
       </c>
       <c r="R22">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="S22">
         <v>120</v>
       </c>
       <c r="T22" s="28"/>
-      <c r="U22" s="63"/>
+      <c r="U22" s="52"/>
       <c r="V22" s="52"/>
       <c r="W22" s="52"/>
       <c r="X22" s="52"/>
@@ -4899,7 +4893,7 @@
       <c r="AA22" s="52"/>
       <c r="AB22" s="52"/>
       <c r="AC22" s="52"/>
-      <c r="AD22" s="63"/>
+      <c r="AD22" s="61"/>
       <c r="AE22" s="52"/>
       <c r="AF22" s="52"/>
       <c r="AG22" s="52"/>
@@ -4909,55 +4903,55 @@
         <v>358</v>
       </c>
       <c r="B23">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C23">
+        <v>150</v>
+      </c>
+      <c r="D23">
         <v>140</v>
       </c>
-      <c r="D23">
-        <v>120</v>
-      </c>
       <c r="E23">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="F23">
         <v>120</v>
       </c>
       <c r="G23">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H23">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="I23">
         <v>170</v>
       </c>
       <c r="J23">
+        <v>120</v>
+      </c>
+      <c r="K23">
+        <v>120</v>
+      </c>
+      <c r="L23">
         <v>170</v>
       </c>
-      <c r="K23">
-        <v>240</v>
-      </c>
-      <c r="L23">
+      <c r="M23">
         <v>150</v>
-      </c>
-      <c r="M23">
-        <v>160</v>
       </c>
       <c r="N23">
         <v>150</v>
       </c>
       <c r="O23">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="P23">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="Q23">
         <v>170</v>
       </c>
       <c r="R23">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="S23">
         <v>120</v>
@@ -4972,7 +4966,7 @@
       <c r="AA23" s="52"/>
       <c r="AB23" s="52"/>
       <c r="AC23" s="52"/>
-      <c r="AD23" s="63"/>
+      <c r="AD23" s="61"/>
       <c r="AE23" s="52"/>
       <c r="AF23" s="52"/>
       <c r="AG23" s="52"/>
@@ -4982,56 +4976,55 @@
         <v>359</v>
       </c>
       <c r="B24">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C24">
+        <v>150</v>
+      </c>
+      <c r="D24">
         <v>140</v>
       </c>
-      <c r="D24">
-        <v>120</v>
-      </c>
       <c r="E24">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="F24">
         <v>120</v>
       </c>
       <c r="G24">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H24">
-        <f>90+120</f>
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="I24">
         <v>170</v>
       </c>
       <c r="J24">
+        <v>120</v>
+      </c>
+      <c r="K24">
+        <v>120</v>
+      </c>
+      <c r="L24">
+        <v>190</v>
+      </c>
+      <c r="M24">
         <v>150</v>
-      </c>
-      <c r="K24">
-        <v>150</v>
-      </c>
-      <c r="L24">
-        <v>150</v>
-      </c>
-      <c r="M24">
-        <v>160</v>
       </c>
       <c r="N24">
         <v>150</v>
       </c>
       <c r="O24">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="P24">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="Q24">
         <v>170</v>
       </c>
       <c r="R24">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="S24">
         <v>120</v>
@@ -5046,874 +5039,480 @@
       <c r="AA24" s="52"/>
       <c r="AB24" s="52"/>
       <c r="AC24" s="52"/>
-      <c r="AD24" s="63"/>
+      <c r="AD24" s="61"/>
       <c r="AE24" s="52"/>
       <c r="AF24" s="52"/>
       <c r="AG24" s="52"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A25" s="48"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="T25" s="28"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="49"/>
+      <c r="T25" s="27"/>
       <c r="U25" s="52"/>
       <c r="V25" s="52"/>
       <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
+      <c r="X25" s="61"/>
       <c r="Y25" s="52"/>
       <c r="Z25" s="52"/>
       <c r="AA25" s="52"/>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="52"/>
-      <c r="AD25" s="63"/>
+      <c r="AB25" s="62"/>
+      <c r="AC25" s="63"/>
+      <c r="AD25" s="52"/>
       <c r="AE25" s="52"/>
       <c r="AF25" s="52"/>
       <c r="AG25" s="52"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>452</v>
-      </c>
-      <c r="B26" s="16">
-        <v>1</v>
-      </c>
-      <c r="C26" s="51">
-        <v>2</v>
-      </c>
-      <c r="D26" s="51">
-        <v>3</v>
-      </c>
-      <c r="E26" s="51">
-        <v>4</v>
-      </c>
-      <c r="F26" s="51">
-        <v>5</v>
-      </c>
-      <c r="G26" s="51">
-        <v>6</v>
-      </c>
-      <c r="H26" s="51">
-        <v>7</v>
-      </c>
-      <c r="I26" s="51">
-        <v>8</v>
-      </c>
-      <c r="J26" s="51">
-        <v>9</v>
-      </c>
-      <c r="K26" s="51">
-        <v>10</v>
-      </c>
-      <c r="L26" s="51">
-        <v>11</v>
-      </c>
-      <c r="M26" s="51">
-        <v>12</v>
-      </c>
-      <c r="N26" s="51">
-        <v>13</v>
-      </c>
-      <c r="O26" s="51">
-        <v>14</v>
-      </c>
-      <c r="P26" s="51">
-        <v>15</v>
-      </c>
-      <c r="Q26" s="51">
-        <v>16</v>
-      </c>
-      <c r="R26" s="51">
-        <v>17</v>
-      </c>
-      <c r="S26" s="19">
-        <v>18</v>
-      </c>
-      <c r="T26" s="27"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="49"/>
       <c r="U26" s="52"/>
       <c r="V26" s="52"/>
       <c r="W26" s="52"/>
-      <c r="X26" s="63"/>
+      <c r="X26" s="61"/>
       <c r="Y26" s="52"/>
       <c r="Z26" s="52"/>
       <c r="AA26" s="52"/>
-      <c r="AB26" s="64"/>
-      <c r="AC26" s="65"/>
+      <c r="AB26" s="62"/>
+      <c r="AC26" s="63"/>
       <c r="AD26" s="52"/>
       <c r="AE26" s="52"/>
       <c r="AF26" s="52"/>
       <c r="AG26" s="52"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A27" s="67" t="s">
-        <v>357</v>
-      </c>
-      <c r="B27" s="37">
-        <v>1100</v>
-      </c>
-      <c r="C27">
-        <v>1280</v>
-      </c>
-      <c r="D27" s="44">
-        <v>1110</v>
-      </c>
-      <c r="E27" s="44">
-        <v>1210</v>
-      </c>
-      <c r="F27" s="44">
-        <v>1190</v>
-      </c>
-      <c r="G27" s="54">
-        <v>1120</v>
-      </c>
-      <c r="H27" s="44">
-        <v>1240</v>
-      </c>
-      <c r="I27" s="44">
-        <v>1140</v>
-      </c>
-      <c r="J27" s="44">
-        <v>1150</v>
-      </c>
-      <c r="K27" s="44">
-        <v>1330</v>
-      </c>
-      <c r="L27" s="44">
-        <v>1170</v>
-      </c>
-      <c r="M27" s="44">
-        <v>1260</v>
-      </c>
-      <c r="N27" s="44">
-        <v>1270</v>
-      </c>
-      <c r="O27" s="44">
-        <v>1290</v>
-      </c>
-      <c r="P27" s="44">
-        <v>1320</v>
-      </c>
-      <c r="Q27" s="44">
-        <v>1350</v>
-      </c>
-      <c r="R27" s="38">
-        <v>1360</v>
-      </c>
-      <c r="S27" s="44">
-        <v>1370</v>
-      </c>
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="52"/>
+      <c r="R27" s="49"/>
       <c r="U27" s="52"/>
       <c r="V27" s="52"/>
       <c r="W27" s="52"/>
-      <c r="X27" s="63"/>
+      <c r="X27" s="61"/>
       <c r="Y27" s="52"/>
       <c r="Z27" s="52"/>
       <c r="AA27" s="52"/>
-      <c r="AB27" s="64"/>
-      <c r="AC27" s="65"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="63"/>
       <c r="AD27" s="52"/>
       <c r="AE27" s="52"/>
       <c r="AF27" s="52"/>
       <c r="AG27" s="52"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A28" s="67"/>
-      <c r="B28" s="36">
-        <v>1160</v>
-      </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36">
-        <v>1180</v>
-      </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="36">
-        <v>1250</v>
-      </c>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36">
-        <v>1300</v>
-      </c>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="S28" s="36"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="49" t="s">
+        <v>360</v>
+      </c>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="49" t="s">
+        <v>379</v>
+      </c>
+      <c r="I28" s="52">
+        <v>170</v>
+      </c>
+      <c r="J28" s="52"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="52"/>
+      <c r="R28" s="49"/>
       <c r="U28" s="52"/>
       <c r="V28" s="52"/>
       <c r="W28" s="52"/>
-      <c r="X28" s="63"/>
+      <c r="X28" s="61"/>
       <c r="Y28" s="52"/>
       <c r="Z28" s="52"/>
       <c r="AA28" s="52"/>
-      <c r="AB28" s="64"/>
-      <c r="AC28" s="65"/>
+      <c r="AB28" s="62"/>
+      <c r="AC28" s="63"/>
       <c r="AD28" s="52"/>
       <c r="AE28" s="52"/>
       <c r="AF28" s="52"/>
       <c r="AG28" s="52"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A29" s="67"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="S29" s="36"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="49" t="s">
+        <v>573</v>
+      </c>
+      <c r="F29" s="52">
+        <v>1</v>
+      </c>
+      <c r="G29" s="52"/>
+      <c r="H29" s="49" t="s">
+        <v>380</v>
+      </c>
+      <c r="I29" s="52">
+        <v>150</v>
+      </c>
+      <c r="J29" s="52"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="52"/>
+      <c r="R29" s="49"/>
       <c r="U29" s="52"/>
       <c r="V29" s="52"/>
       <c r="W29" s="52"/>
-      <c r="X29" s="63"/>
+      <c r="X29" s="61"/>
       <c r="Y29" s="52"/>
       <c r="Z29" s="52"/>
       <c r="AA29" s="52"/>
-      <c r="AB29" s="64"/>
-      <c r="AC29" s="65"/>
+      <c r="AB29" s="62"/>
+      <c r="AC29" s="63"/>
       <c r="AD29" s="52"/>
       <c r="AE29" s="52"/>
       <c r="AF29" s="52"/>
       <c r="AG29" s="52"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A30" s="67" t="s">
-        <v>358</v>
-      </c>
-      <c r="B30" s="41">
-        <v>2100</v>
-      </c>
-      <c r="C30" s="44">
-        <v>2280</v>
-      </c>
-      <c r="D30" s="44">
-        <v>2110</v>
-      </c>
-      <c r="E30" s="44">
-        <v>2210</v>
-      </c>
-      <c r="F30" s="44">
-        <v>2190</v>
-      </c>
-      <c r="G30" s="44">
-        <v>2120</v>
-      </c>
-      <c r="H30" s="44">
-        <v>2240</v>
-      </c>
-      <c r="I30" s="54">
-        <v>2140</v>
-      </c>
-      <c r="J30" s="54">
-        <v>2150</v>
-      </c>
-      <c r="K30" s="44">
-        <v>2330</v>
-      </c>
-      <c r="L30" s="44">
-        <v>2170</v>
-      </c>
-      <c r="M30" s="44">
-        <v>2260</v>
-      </c>
-      <c r="N30" s="44">
-        <v>2270</v>
-      </c>
-      <c r="O30" s="44">
-        <v>2290</v>
-      </c>
-      <c r="P30" s="54">
-        <v>2320</v>
-      </c>
-      <c r="Q30" s="44">
-        <v>2350</v>
-      </c>
-      <c r="R30" s="56">
-        <v>2360</v>
-      </c>
-      <c r="S30" s="44">
-        <v>2370</v>
-      </c>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="63"/>
-      <c r="Y30" s="52"/>
-      <c r="Z30" s="52"/>
-      <c r="AA30" s="52"/>
-      <c r="AB30" s="64"/>
-      <c r="AC30" s="65"/>
-      <c r="AD30" s="52"/>
-      <c r="AE30" s="52"/>
-      <c r="AF30" s="52"/>
-      <c r="AG30" s="52"/>
+      <c r="E30" s="49" t="s">
+        <v>574</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="H30" s="49" t="s">
+        <v>381</v>
+      </c>
+      <c r="I30">
+        <v>140</v>
+      </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A31" s="67"/>
-      <c r="B31" s="36">
-        <v>2160</v>
-      </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="52">
-        <v>2180</v>
-      </c>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="53">
-        <v>2250</v>
-      </c>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="L31" s="60">
-        <v>2230</v>
-      </c>
-      <c r="M31" s="53">
-        <v>2300</v>
-      </c>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="36"/>
+      <c r="E31" s="49" t="s">
+        <v>575</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="H31" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="I31">
+        <v>90</v>
+      </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A32" s="67"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="15"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="67" t="s">
-        <v>359</v>
-      </c>
-      <c r="B33" s="39">
-        <v>3100</v>
-      </c>
-      <c r="C33" s="44">
-        <v>3280</v>
-      </c>
-      <c r="D33" s="41">
-        <v>3110</v>
-      </c>
-      <c r="E33" s="44">
-        <v>3210</v>
-      </c>
-      <c r="F33" s="44">
-        <v>3190</v>
-      </c>
-      <c r="G33" s="58">
-        <v>3120</v>
-      </c>
-      <c r="H33" s="44">
-        <v>3240</v>
-      </c>
-      <c r="I33" s="54">
-        <v>3140</v>
-      </c>
-      <c r="J33" s="53">
-        <v>3250</v>
-      </c>
-      <c r="K33" s="44">
-        <v>3330</v>
-      </c>
-      <c r="L33" s="53">
-        <v>3170</v>
-      </c>
-      <c r="M33" s="54">
-        <v>3260</v>
-      </c>
-      <c r="N33" s="41">
-        <v>3270</v>
-      </c>
-      <c r="O33" s="44">
-        <v>3290</v>
-      </c>
-      <c r="P33" s="74">
-        <v>3130</v>
-      </c>
-      <c r="Q33" s="44">
-        <v>3350</v>
-      </c>
-      <c r="R33" s="56">
-        <v>3360</v>
-      </c>
-      <c r="S33" s="44">
-        <v>3370</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34" s="67"/>
-      <c r="B34" s="36">
-        <v>3160</v>
-      </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="39">
-        <v>3180</v>
-      </c>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="53">
-        <v>3250</v>
-      </c>
-      <c r="I34" s="36"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="73">
-        <v>3340</v>
-      </c>
-      <c r="M34" s="36">
-        <v>3330</v>
-      </c>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36">
-        <v>3320</v>
-      </c>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="36"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35" s="67"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="15"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A36" s="48" t="s">
-        <v>357</v>
-      </c>
-      <c r="B36">
+      <c r="E32" s="49" t="s">
+        <v>576</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="H32" s="49" t="s">
+        <v>383</v>
+      </c>
+      <c r="I32">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E33" s="49" t="s">
+        <v>577</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="H33" s="49" t="s">
+        <v>466</v>
+      </c>
+      <c r="I33">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E34" s="49" t="s">
+        <v>578</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="H34" s="49" t="s">
+        <v>384</v>
+      </c>
+      <c r="I34">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E35" s="49" t="s">
+        <v>579</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="H35" s="49" t="s">
+        <v>385</v>
+      </c>
+      <c r="I35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E36" s="49" t="s">
+        <v>580</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="H36" s="49" t="s">
+        <v>386</v>
+      </c>
+      <c r="I36">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E37" s="49" t="s">
+        <v>581</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="H37" s="49" t="s">
+        <v>387</v>
+      </c>
+      <c r="I37">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E38" s="49" t="s">
+        <v>582</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="H38" s="49" t="s">
+        <v>388</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E39" s="49" t="s">
+        <v>583</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="H39" s="49" t="s">
+        <v>389</v>
+      </c>
+      <c r="I39">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E40" s="49" t="s">
+        <v>584</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="H40" s="49" t="s">
+        <v>390</v>
+      </c>
+      <c r="I40">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E41" s="49" t="s">
+        <v>585</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="H41" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="I41">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E42" s="49" t="s">
+        <v>586</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="H42" s="49" t="s">
+        <v>392</v>
+      </c>
+      <c r="I42">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E43" s="49" t="s">
+        <v>587</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="H43" s="49" t="s">
+        <v>393</v>
+      </c>
+      <c r="I43">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E44" s="49" t="s">
+        <v>588</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="H44" s="49" t="s">
+        <v>394</v>
+      </c>
+      <c r="I44">
         <v>170</v>
       </c>
-      <c r="C36">
-        <v>150</v>
-      </c>
-      <c r="D36">
-        <v>140</v>
-      </c>
-      <c r="E36">
-        <v>90</v>
-      </c>
-      <c r="F36">
-        <v>120</v>
-      </c>
-      <c r="G36">
-        <v>130</v>
-      </c>
-      <c r="H36">
+      <c r="W44" s="73"/>
+    </row>
+    <row r="45" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="E45" s="49" t="s">
+        <v>589</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="H45" s="49" t="s">
+        <v>644</v>
+      </c>
+      <c r="I45">
         <v>160</v>
       </c>
-      <c r="I36">
-        <v>170</v>
-      </c>
-      <c r="J36">
-        <v>120</v>
-      </c>
-      <c r="K36">
-        <v>120</v>
-      </c>
-      <c r="L36">
-        <v>70</v>
-      </c>
-      <c r="M36">
-        <v>150</v>
-      </c>
-      <c r="N36">
-        <v>150</v>
-      </c>
-      <c r="O36">
-        <v>150</v>
-      </c>
-      <c r="P36">
-        <v>60</v>
-      </c>
-      <c r="Q36">
-        <v>170</v>
-      </c>
-      <c r="R36">
-        <v>70</v>
-      </c>
-      <c r="S36">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37" s="48" t="s">
-        <v>358</v>
-      </c>
-      <c r="B37">
-        <v>170</v>
-      </c>
-      <c r="C37">
-        <v>150</v>
-      </c>
-      <c r="D37">
-        <v>140</v>
-      </c>
-      <c r="E37">
-        <v>90</v>
-      </c>
-      <c r="F37">
-        <v>120</v>
-      </c>
-      <c r="G37">
-        <v>130</v>
-      </c>
-      <c r="H37">
-        <v>160</v>
-      </c>
-      <c r="I37">
-        <v>170</v>
-      </c>
-      <c r="J37">
-        <v>120</v>
-      </c>
-      <c r="K37">
-        <v>120</v>
-      </c>
-      <c r="L37">
-        <v>170</v>
-      </c>
-      <c r="M37">
-        <v>150</v>
-      </c>
-      <c r="N37">
-        <v>150</v>
-      </c>
-      <c r="O37">
-        <v>150</v>
-      </c>
-      <c r="P37">
-        <v>60</v>
-      </c>
-      <c r="Q37">
-        <v>170</v>
-      </c>
-      <c r="R37">
-        <v>70</v>
-      </c>
-      <c r="S37">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38" s="48" t="s">
-        <v>359</v>
-      </c>
-      <c r="B38">
-        <v>170</v>
-      </c>
-      <c r="C38">
-        <v>150</v>
-      </c>
-      <c r="D38">
-        <v>140</v>
-      </c>
-      <c r="E38">
-        <v>90</v>
-      </c>
-      <c r="F38">
-        <v>120</v>
-      </c>
-      <c r="G38">
-        <v>130</v>
-      </c>
-      <c r="H38">
-        <v>160</v>
-      </c>
-      <c r="I38">
-        <v>170</v>
-      </c>
-      <c r="J38">
-        <v>120</v>
-      </c>
-      <c r="K38">
-        <v>120</v>
-      </c>
-      <c r="L38">
-        <v>190</v>
-      </c>
-      <c r="M38">
-        <v>150</v>
-      </c>
-      <c r="N38">
-        <v>150</v>
-      </c>
-      <c r="O38">
-        <v>150</v>
-      </c>
-      <c r="P38">
-        <v>160</v>
-      </c>
-      <c r="Q38">
-        <v>170</v>
-      </c>
-      <c r="R38">
-        <v>70</v>
-      </c>
-      <c r="S38">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A39" s="49"/>
-      <c r="B39" s="49"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="63"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="63"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="49"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A40" s="49"/>
-      <c r="B40" s="49"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="63"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="49"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41" s="49"/>
-      <c r="B41" s="49"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="52"/>
-      <c r="R41" s="49"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="D42" s="52"/>
-      <c r="E42" s="49" t="s">
-        <v>360</v>
-      </c>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="49" t="s">
-        <v>379</v>
-      </c>
-      <c r="I42" s="52">
-        <v>170</v>
-      </c>
-      <c r="J42" s="52"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="63"/>
-      <c r="M42" s="52"/>
-      <c r="N42" s="63"/>
-      <c r="O42" s="52"/>
-      <c r="R42" s="49"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="D43" s="52"/>
-      <c r="E43" s="49" t="s">
-        <v>573</v>
-      </c>
-      <c r="F43" s="52">
-        <v>1</v>
-      </c>
-      <c r="G43" s="52"/>
-      <c r="H43" s="49" t="s">
-        <v>380</v>
-      </c>
-      <c r="I43" s="52">
-        <v>150</v>
-      </c>
-      <c r="J43" s="52"/>
-      <c r="K43" s="66"/>
-      <c r="L43" s="63"/>
-      <c r="M43" s="52"/>
-      <c r="N43" s="63"/>
-      <c r="O43" s="52"/>
-      <c r="R43" s="49"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="E44" s="49" t="s">
-        <v>574</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="H44" s="49" t="s">
-        <v>381</v>
-      </c>
-      <c r="I44">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="E45" s="49" t="s">
-        <v>575</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="H45" s="49" t="s">
-        <v>382</v>
-      </c>
-      <c r="I45">
-        <v>90</v>
-      </c>
-      <c r="W45" s="75"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E46" s="49" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="H46" s="49" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="I46">
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E47" s="49" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="H47" s="49" t="s">
-        <v>466</v>
+        <v>396</v>
       </c>
       <c r="I47">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E48" s="49" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="H48" s="49" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="I48">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E49" s="49" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="H49" s="49" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="I49">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E50" s="49" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="H50" s="49" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="I50">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E51" s="49" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
       <c r="H51" s="49" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="I51">
         <v>120</v>
@@ -5921,97 +5520,97 @@
     </row>
     <row r="52" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E52" s="49" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
       <c r="H52" s="49" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E53" s="49" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="H53" s="49" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="I53">
-        <v>70</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E54" s="49" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
       <c r="H54" s="49" t="s">
-        <v>390</v>
+        <v>645</v>
       </c>
       <c r="I54">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E55" s="49" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
       <c r="H55" s="49" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="I55">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E56" s="49" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="H56" s="49" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="I56">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E57" s="49" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
       <c r="H57" s="49" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="I57">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E58" s="49" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
       <c r="H58" s="49" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="I58">
         <v>170</v>
@@ -6019,97 +5618,97 @@
     </row>
     <row r="59" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E59" s="49" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
       <c r="H59" s="49" t="s">
-        <v>644</v>
+        <v>407</v>
       </c>
       <c r="I59">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E60" s="49" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="H60" s="49" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="I60">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E61" s="49" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="F61">
         <v>1</v>
       </c>
       <c r="H61" s="49" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="I61">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E62" s="49" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
       <c r="H62" s="49" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="I62">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E63" s="49" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
       <c r="H63" s="49" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="I63">
-        <v>140</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E64" s="49" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
       <c r="H64" s="49" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="I64">
-        <v>90</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E65" s="49" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
       <c r="H65" s="49" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="I65">
         <v>120</v>
@@ -6117,69 +5716,69 @@
     </row>
     <row r="66" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E66" s="49" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="F66">
         <v>1</v>
       </c>
       <c r="H66" s="49" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="I66">
-        <v>130</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E67" s="49" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="F67">
         <v>1</v>
       </c>
       <c r="H67" s="49" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="I67">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E68" s="49" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="F68">
         <v>1</v>
       </c>
       <c r="H68" s="49" t="s">
-        <v>645</v>
+        <v>416</v>
       </c>
       <c r="I68">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E69" s="49" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
       <c r="H69" s="49" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="I69">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E70" s="49" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="F70">
         <v>1</v>
       </c>
       <c r="H70" s="49" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="I70">
         <v>120</v>
@@ -6187,97 +5786,97 @@
     </row>
     <row r="71" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E71" s="49" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="F71">
         <v>1</v>
       </c>
       <c r="H71" s="49" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E72" s="49" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="F72">
         <v>1</v>
       </c>
       <c r="H72" s="49" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="I72">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E73" s="49" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="F73">
         <v>1</v>
       </c>
       <c r="H73" s="49" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="I73">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E74" s="49" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
       <c r="H74" s="49" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="I74">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E75" s="49" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="F75">
         <v>1</v>
       </c>
       <c r="H75" s="49" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="I75">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E76" s="49" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
       <c r="H76" s="49" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="I76">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E77" s="49" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
       <c r="H77" s="49" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="I77">
         <v>170</v>
@@ -6285,97 +5884,97 @@
     </row>
     <row r="78" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E78" s="49" t="s">
-        <v>608</v>
+        <v>374</v>
       </c>
       <c r="F78">
         <v>1</v>
       </c>
       <c r="H78" s="49" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="I78">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E79" s="49" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="F79">
         <v>1</v>
       </c>
       <c r="H79" s="49" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="I79">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E80" s="49" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="H80" s="49" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="I80">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E81" s="49" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="F81">
         <v>1</v>
       </c>
       <c r="H81" s="49" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="I81">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E82" s="49" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="F82">
         <v>1</v>
       </c>
       <c r="H82" s="49" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="I82">
-        <v>140</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E83" s="49" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="F83">
         <v>1</v>
       </c>
       <c r="H83" s="49" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="I83">
-        <v>90</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E84" s="49" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="F84">
         <v>1</v>
       </c>
       <c r="H84" s="49" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="I84">
         <v>120</v>
@@ -6383,417 +5982,333 @@
     </row>
     <row r="85" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E85" s="49" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="F85">
         <v>1</v>
-      </c>
-      <c r="H85" s="49" t="s">
-        <v>419</v>
-      </c>
-      <c r="I85">
-        <v>130</v>
       </c>
     </row>
     <row r="86" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E86" s="49" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="F86">
         <v>1</v>
-      </c>
-      <c r="H86" s="49" t="s">
-        <v>420</v>
-      </c>
-      <c r="I86">
-        <v>160</v>
       </c>
     </row>
     <row r="87" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E87" s="49" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="F87">
         <v>1</v>
-      </c>
-      <c r="H87" s="49" t="s">
-        <v>421</v>
-      </c>
-      <c r="I87">
-        <v>120</v>
       </c>
     </row>
     <row r="88" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E88" s="49" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="F88">
         <v>1</v>
-      </c>
-      <c r="H88" s="49" t="s">
-        <v>422</v>
-      </c>
-      <c r="I88">
-        <v>120</v>
       </c>
     </row>
     <row r="89" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E89" s="49" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="F89">
         <v>1</v>
-      </c>
-      <c r="H89" s="49" t="s">
-        <v>423</v>
-      </c>
-      <c r="I89">
-        <v>120</v>
       </c>
     </row>
     <row r="90" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E90" s="49" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="F90">
         <v>1</v>
-      </c>
-      <c r="H90" s="49" t="s">
-        <v>424</v>
-      </c>
-      <c r="I90">
-        <v>120</v>
       </c>
     </row>
     <row r="91" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E91" s="49" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="F91">
         <v>1</v>
-      </c>
-      <c r="H91" s="49" t="s">
-        <v>425</v>
-      </c>
-      <c r="I91">
-        <v>170</v>
       </c>
     </row>
     <row r="92" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E92" s="49" t="s">
-        <v>374</v>
+        <v>635</v>
       </c>
       <c r="F92">
         <v>1</v>
-      </c>
-      <c r="H92" s="49" t="s">
-        <v>426</v>
-      </c>
-      <c r="I92">
-        <v>150</v>
       </c>
     </row>
     <row r="93" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E93" s="49" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="F93">
         <v>1</v>
-      </c>
-      <c r="H93" s="49" t="s">
-        <v>427</v>
-      </c>
-      <c r="I93">
-        <v>150</v>
       </c>
     </row>
     <row r="94" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E94" s="49" t="s">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="F94">
         <v>1</v>
-      </c>
-      <c r="H94" s="49" t="s">
-        <v>428</v>
-      </c>
-      <c r="I94">
-        <v>150</v>
       </c>
     </row>
     <row r="95" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E95" s="49" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="F95">
         <v>1</v>
-      </c>
-      <c r="H95" s="49" t="s">
-        <v>429</v>
-      </c>
-      <c r="I95">
-        <v>160</v>
       </c>
     </row>
     <row r="96" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E96" s="49" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="F96">
         <v>1</v>
       </c>
-      <c r="H96" s="49" t="s">
-        <v>430</v>
-      </c>
-      <c r="I96">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="97" spans="5:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E97" s="49" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="F97">
         <v>1</v>
       </c>
-      <c r="H97" s="49" t="s">
-        <v>431</v>
-      </c>
-      <c r="I97">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="98" spans="5:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E98" s="49" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="F98">
         <v>1</v>
       </c>
-      <c r="H98" s="49" t="s">
-        <v>432</v>
-      </c>
-      <c r="I98">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="99" spans="5:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E99" s="49" t="s">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="F99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E100" s="49" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="F100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E101" s="49" t="s">
-        <v>630</v>
+        <v>555</v>
       </c>
       <c r="F101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E102" s="49" t="s">
-        <v>631</v>
+        <v>464</v>
       </c>
       <c r="F102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E103" s="49" t="s">
-        <v>632</v>
+        <v>465</v>
       </c>
       <c r="F103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E104" s="49" t="s">
-        <v>633</v>
-      </c>
-      <c r="F104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E105" s="49" t="s">
-        <v>634</v>
-      </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E106" s="49" t="s">
-        <v>635</v>
-      </c>
-      <c r="F106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E107" s="49" t="s">
-        <v>636</v>
-      </c>
-      <c r="F107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E108" s="49" t="s">
-        <v>637</v>
-      </c>
-      <c r="F108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E109" s="49" t="s">
-        <v>638</v>
-      </c>
-      <c r="F109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E110" s="49" t="s">
-        <v>639</v>
-      </c>
-      <c r="F110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E111" s="49" t="s">
-        <v>640</v>
-      </c>
-      <c r="F111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E112" s="49" t="s">
-        <v>641</v>
-      </c>
-      <c r="F112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E113" s="49" t="s">
-        <v>642</v>
-      </c>
-      <c r="F113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E114" s="49" t="s">
-        <v>643</v>
-      </c>
-      <c r="F114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E115" s="49" t="s">
-        <v>555</v>
-      </c>
-      <c r="F115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E116" s="49" t="s">
-        <v>464</v>
-      </c>
-      <c r="F116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E117" s="49" t="s">
-        <v>465</v>
-      </c>
-      <c r="F117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="49" t="s">
+        <v>360</v>
+      </c>
+      <c r="B106" s="49"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="49" t="s">
+        <v>362</v>
+      </c>
+      <c r="B107" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="49" t="s">
+        <v>511</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="49" t="s">
+        <v>512</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="49" t="s">
+        <v>363</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="49" t="s">
+        <v>364</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="49" t="s">
+        <v>513</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="49" t="s">
+        <v>514</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="49" t="s">
+        <v>515</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="49" t="s">
+        <v>365</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="49" t="s">
+        <v>366</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="49" t="s">
+        <v>367</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="49" t="s">
-        <v>360</v>
-      </c>
-      <c r="B120" s="49"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+        <v>516</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="49" t="s">
-        <v>362</v>
-      </c>
-      <c r="B121" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="49" t="s">
-        <v>511</v>
+        <v>455</v>
       </c>
       <c r="B122">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="49" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="B123">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="49" t="s">
-        <v>363</v>
+        <v>519</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="49" t="s">
-        <v>364</v>
+        <v>520</v>
       </c>
       <c r="B125">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="49" t="s">
-        <v>513</v>
+        <v>368</v>
       </c>
       <c r="B126">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="49" t="s">
-        <v>453</v>
+        <v>521</v>
       </c>
       <c r="B127">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="49" t="s">
-        <v>454</v>
+        <v>369</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -6801,7 +6316,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="49" t="s">
-        <v>514</v>
+        <v>370</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -6809,7 +6324,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="49" t="s">
-        <v>515</v>
+        <v>456</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -6817,7 +6332,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="49" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -6825,7 +6340,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="49" t="s">
-        <v>366</v>
+        <v>457</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -6833,7 +6348,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="49" t="s">
-        <v>367</v>
+        <v>522</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -6841,7 +6356,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="49" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -6849,7 +6364,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="49" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -6857,7 +6372,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="49" t="s">
-        <v>455</v>
+        <v>525</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -6865,7 +6380,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="49" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -6873,7 +6388,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="49" t="s">
-        <v>519</v>
+        <v>458</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -6881,7 +6396,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="49" t="s">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -6889,7 +6404,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="49" t="s">
-        <v>368</v>
+        <v>527</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -6897,7 +6412,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="49" t="s">
-        <v>521</v>
+        <v>460</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -6905,7 +6420,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="49" t="s">
-        <v>369</v>
+        <v>528</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -6913,7 +6428,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="49" t="s">
-        <v>370</v>
+        <v>529</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -6921,7 +6436,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="49" t="s">
-        <v>456</v>
+        <v>530</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -6929,7 +6444,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="49" t="s">
-        <v>371</v>
+        <v>531</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -6937,7 +6452,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="49" t="s">
-        <v>457</v>
+        <v>532</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -6945,7 +6460,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="49" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -6953,7 +6468,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="49" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -6961,7 +6476,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="49" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -6969,7 +6484,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="49" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -6977,7 +6492,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="49" t="s">
-        <v>526</v>
+        <v>372</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -6985,7 +6500,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="49" t="s">
-        <v>458</v>
+        <v>537</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -6993,7 +6508,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="49" t="s">
-        <v>459</v>
+        <v>538</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -7001,7 +6516,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="49" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -7009,7 +6524,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="49" t="s">
-        <v>460</v>
+        <v>373</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -7017,7 +6532,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="49" t="s">
-        <v>528</v>
+        <v>374</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -7025,7 +6540,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="49" t="s">
-        <v>529</v>
+        <v>375</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -7033,7 +6548,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="49" t="s">
-        <v>530</v>
+        <v>376</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -7041,7 +6556,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="49" t="s">
-        <v>531</v>
+        <v>377</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -7049,7 +6564,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="49" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -7057,7 +6572,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="49" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -7065,7 +6580,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="49" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -7073,7 +6588,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="49" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -7081,7 +6596,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="49" t="s">
-        <v>536</v>
+        <v>461</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -7089,7 +6604,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="49" t="s">
-        <v>372</v>
+        <v>462</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -7097,7 +6612,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="49" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -7105,7 +6620,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="49" t="s">
-        <v>538</v>
+        <v>378</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -7113,7 +6628,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="49" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -7121,7 +6636,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="49" t="s">
-        <v>373</v>
+        <v>546</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -7129,7 +6644,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="49" t="s">
-        <v>374</v>
+        <v>547</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -7137,7 +6652,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="49" t="s">
-        <v>375</v>
+        <v>548</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -7145,7 +6660,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="49" t="s">
-        <v>376</v>
+        <v>549</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -7153,7 +6668,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="49" t="s">
-        <v>377</v>
+        <v>463</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -7161,7 +6676,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="49" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -7169,7 +6684,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="49" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -7177,7 +6692,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="49" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -7185,7 +6700,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="49" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -7193,7 +6708,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="49" t="s">
-        <v>461</v>
+        <v>554</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -7201,7 +6716,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="49" t="s">
-        <v>462</v>
+        <v>555</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -7209,7 +6724,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="49" t="s">
-        <v>544</v>
+        <v>464</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -7217,7 +6732,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="49" t="s">
-        <v>378</v>
+        <v>465</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -7225,143 +6740,143 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="49" t="s">
-        <v>545</v>
+        <v>379</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>170</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="49" t="s">
-        <v>546</v>
+        <v>380</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>140</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="49" t="s">
-        <v>547</v>
+        <v>381</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="49" t="s">
-        <v>548</v>
+        <v>382</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>120</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="49" t="s">
-        <v>549</v>
+        <v>383</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>120</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="49" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>120</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="49" t="s">
-        <v>550</v>
+        <v>384</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="49" t="s">
-        <v>551</v>
+        <v>385</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="49" t="s">
-        <v>552</v>
+        <v>386</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="49" t="s">
-        <v>553</v>
+        <v>387</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="49" t="s">
-        <v>554</v>
+        <v>388</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="49" t="s">
-        <v>555</v>
+        <v>389</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>160</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="49" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="49" t="s">
-        <v>465</v>
+        <v>391</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>120</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="49" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="B196">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="49" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="B197">
-        <v>140</v>
+        <v>170</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="49" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="B198">
-        <v>130</v>
+        <v>70</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="49" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="B199">
         <v>120</v>
@@ -7369,39 +6884,39 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="49" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="B200">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="49" t="s">
-        <v>466</v>
+        <v>397</v>
       </c>
       <c r="B201">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="49" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="B202">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="49" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="B203">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="49" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="B204">
         <v>150</v>
@@ -7409,159 +6924,159 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="49" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="B205">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="49" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="B206">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="49" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="B207">
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="49" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="B208">
-        <v>150</v>
+        <v>90</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="49" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="B209">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="49" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="B210">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="49" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="B211">
-        <v>170</v>
+        <v>120</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="49" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="B212">
-        <v>70</v>
+        <v>170</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="49" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="B213">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="49" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="B214">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="49" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="B215">
-        <v>140</v>
+        <v>170</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="49" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="B216">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="49" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="B217">
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="49" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="B218">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="49" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="B219">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="49" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="B220">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="49" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="B221">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="49" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="B222">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="49" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="B223">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="49" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="B224">
         <v>120</v>
@@ -7569,15 +7084,15 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="49" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="B225">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="49" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="B226">
         <v>170</v>
@@ -7585,7 +7100,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="49" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="B227">
         <v>160</v>
@@ -7593,7 +7108,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="49" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="B228">
         <v>150</v>
@@ -7601,15 +7116,15 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="49" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="B229">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="49" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="B230">
         <v>160</v>
@@ -7617,47 +7132,47 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="49" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="B231">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="49" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="B232">
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="49" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="B233">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="49" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="B234">
-        <v>120</v>
+        <v>170</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="49" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="B235">
-        <v>130</v>
+        <v>170</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="49" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="B236">
         <v>120</v>
@@ -7665,287 +7180,287 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="49" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="B237">
-        <v>120</v>
+        <v>490</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="49" t="s">
+        <v>434</v>
+      </c>
+      <c r="B238">
         <v>420</v>
-      </c>
-      <c r="B238">
-        <v>120</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="49" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="B239">
-        <v>90</v>
+        <v>370</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="49" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="B240">
-        <v>170</v>
+        <v>410</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="49" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="B241">
-        <v>160</v>
+        <v>390</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="49" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="B242">
-        <v>150</v>
+        <v>340</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="49" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="B243">
-        <v>150</v>
+        <v>380</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="49" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="B244">
-        <v>160</v>
+        <v>240</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="49" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="B245">
-        <v>150</v>
+        <v>440</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="49" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="B246">
-        <v>120</v>
+        <v>340</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="49" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="B247">
-        <v>150</v>
+        <v>390</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="49" t="s">
+        <v>444</v>
+      </c>
+      <c r="B248">
         <v>430</v>
-      </c>
-      <c r="B248">
-        <v>170</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="49" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="B249">
-        <v>170</v>
+        <v>430</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="49" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="B250">
-        <v>120</v>
+        <v>440</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="49" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="B251">
-        <v>490</v>
+        <v>430</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="49" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="B252">
-        <v>420</v>
+        <v>470</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="49" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="B253">
-        <v>370</v>
+        <v>410</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="49" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="B254">
-        <v>410</v>
+        <v>330</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="49" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="B255">
-        <v>390</v>
+        <v>360</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="49" t="s">
-        <v>438</v>
+        <v>467</v>
       </c>
       <c r="B256">
-        <v>340</v>
+        <v>30</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="49" t="s">
-        <v>439</v>
+        <v>468</v>
       </c>
       <c r="B257">
-        <v>380</v>
+        <v>40</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="49" t="s">
-        <v>440</v>
+        <v>469</v>
       </c>
       <c r="B258">
-        <v>240</v>
+        <v>50</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="49" t="s">
-        <v>441</v>
+        <v>470</v>
       </c>
       <c r="B259">
-        <v>440</v>
+        <v>50</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="49" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="B260">
-        <v>340</v>
+        <v>50</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="49" t="s">
-        <v>443</v>
+        <v>556</v>
       </c>
       <c r="B261">
-        <v>390</v>
+        <v>40</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="49" t="s">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="B262">
-        <v>430</v>
+        <v>20</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="49" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="B263">
-        <v>430</v>
+        <v>20</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="49" t="s">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="B264">
-        <v>440</v>
+        <v>80</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="49" t="s">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="B265">
-        <v>430</v>
+        <v>80</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="49" t="s">
-        <v>448</v>
+        <v>476</v>
       </c>
       <c r="B266">
-        <v>470</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="49" t="s">
-        <v>449</v>
+        <v>477</v>
       </c>
       <c r="B267">
-        <v>410</v>
+        <v>20</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="49" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="B268">
-        <v>330</v>
+        <v>50</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="49" t="s">
-        <v>451</v>
+        <v>479</v>
       </c>
       <c r="B269">
-        <v>360</v>
+        <v>20</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="49" t="s">
-        <v>467</v>
+        <v>557</v>
       </c>
       <c r="B270">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="49" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="B271">
-        <v>40</v>
+        <v>170</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="49" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="B272">
         <v>50</v>
@@ -7953,39 +7468,39 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="49" t="s">
-        <v>470</v>
+        <v>558</v>
       </c>
       <c r="B273">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="49" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="B274">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="49" t="s">
-        <v>556</v>
+        <v>483</v>
       </c>
       <c r="B275">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="49" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="B276">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="49" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="B277">
         <v>20</v>
@@ -7993,47 +7508,47 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="49" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="B278">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="49" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="B279">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="49" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="B280">
-        <v>10</v>
+        <v>170</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="49" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="B281">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="49" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="B282">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="49" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="B283">
         <v>20</v>
@@ -8041,47 +7556,47 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="49" t="s">
-        <v>557</v>
+        <v>492</v>
       </c>
       <c r="B284">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="49" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="B285">
-        <v>170</v>
+        <v>50</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="49" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="B286">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="49" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B287">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="49" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="B288">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="49" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="B289">
         <v>50</v>
@@ -8089,7 +7604,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="49" t="s">
-        <v>484</v>
+        <v>560</v>
       </c>
       <c r="B290">
         <v>10</v>
@@ -8097,23 +7612,23 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="49" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="B291">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="49" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="B292">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="49" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="B293">
         <v>40</v>
@@ -8121,15 +7636,15 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="49" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="B294">
-        <v>170</v>
+        <v>50</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="49" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="B295">
         <v>50</v>
@@ -8137,63 +7652,63 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="49" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="B296">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="49" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="B297">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="49" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="B298">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="49" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="B299">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="49" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="B300">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="49" t="s">
-        <v>559</v>
+        <v>507</v>
       </c>
       <c r="B301">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="49" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="B302">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="49" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="B303">
         <v>50</v>
@@ -8201,31 +7716,31 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="49" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B304">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="49" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="B305">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="49" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="B306">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="49" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="B307">
         <v>40</v>
@@ -8233,7 +7748,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="49" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="B308">
         <v>50</v>
@@ -8241,7 +7756,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="49" t="s">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="B309">
         <v>50</v>
@@ -8249,7 +7764,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="49" t="s">
-        <v>502</v>
+        <v>471</v>
       </c>
       <c r="B310">
         <v>50</v>
@@ -8257,23 +7772,23 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="49" t="s">
-        <v>503</v>
+        <v>556</v>
       </c>
       <c r="B311">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="49" t="s">
-        <v>504</v>
+        <v>472</v>
       </c>
       <c r="B312">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="49" t="s">
-        <v>505</v>
+        <v>473</v>
       </c>
       <c r="B313">
         <v>20</v>
@@ -8281,71 +7796,71 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="49" t="s">
-        <v>506</v>
+        <v>474</v>
       </c>
       <c r="B314">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="49" t="s">
-        <v>507</v>
+        <v>475</v>
       </c>
       <c r="B315">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="49" t="s">
-        <v>508</v>
+        <v>476</v>
       </c>
       <c r="B316">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="49" t="s">
-        <v>509</v>
+        <v>477</v>
       </c>
       <c r="B317">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="49" t="s">
-        <v>561</v>
+        <v>478</v>
       </c>
       <c r="B318">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="49" t="s">
-        <v>510</v>
+        <v>479</v>
       </c>
       <c r="B319">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="49" t="s">
-        <v>467</v>
+        <v>557</v>
       </c>
       <c r="B320">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="49" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="B321">
-        <v>40</v>
+        <v>170</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="49" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="B322">
         <v>50</v>
@@ -8353,39 +7868,39 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="49" t="s">
-        <v>470</v>
+        <v>558</v>
       </c>
       <c r="B323">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="49" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="B324">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="49" t="s">
-        <v>556</v>
+        <v>483</v>
       </c>
       <c r="B325">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="49" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="B326">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="49" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="B327">
         <v>20</v>
@@ -8393,47 +7908,47 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="49" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="B328">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="49" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="B329">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="49" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="B330">
-        <v>10</v>
+        <v>170</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="49" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="B331">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="49" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="B332">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="49" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="B333">
         <v>20</v>
@@ -8441,47 +7956,47 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="49" t="s">
-        <v>557</v>
+        <v>492</v>
       </c>
       <c r="B334">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="49" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="B335">
-        <v>170</v>
+        <v>50</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="49" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="B336">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="49" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B337">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="49" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="B338">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="49" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="B339">
         <v>50</v>
@@ -8489,7 +8004,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="49" t="s">
-        <v>484</v>
+        <v>560</v>
       </c>
       <c r="B340">
         <v>10</v>
@@ -8497,23 +8012,23 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="49" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="B341">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="49" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="B342">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="49" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="B343">
         <v>40</v>
@@ -8521,15 +8036,15 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="49" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="B344">
-        <v>170</v>
+        <v>50</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="49" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="B345">
         <v>50</v>
@@ -8537,63 +8052,63 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="49" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="B346">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="49" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="B347">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="49" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="B348">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="49" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="B349">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="49" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="B350">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="49" t="s">
-        <v>559</v>
+        <v>507</v>
       </c>
       <c r="B351">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="49" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="B352">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="49" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="B353">
         <v>50</v>
@@ -8601,148 +8116,33 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="49" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B354">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="49" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="B355">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="49" t="s">
-        <v>498</v>
-      </c>
-      <c r="B356">
-        <v>50</v>
+        <v>361</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A357" s="49" t="s">
-        <v>499</v>
-      </c>
-      <c r="B357">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A358" s="49" t="s">
-        <v>500</v>
-      </c>
-      <c r="B358">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A359" s="49" t="s">
-        <v>501</v>
-      </c>
-      <c r="B359">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A360" s="49" t="s">
-        <v>502</v>
-      </c>
-      <c r="B360">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A361" s="49" t="s">
-        <v>503</v>
-      </c>
-      <c r="B361">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A362" s="49" t="s">
-        <v>504</v>
-      </c>
-      <c r="B362">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A363" s="49" t="s">
-        <v>505</v>
-      </c>
-      <c r="B363">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A364" s="49" t="s">
-        <v>506</v>
-      </c>
-      <c r="B364">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A365" s="49" t="s">
-        <v>507</v>
-      </c>
-      <c r="B365">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A366" s="49" t="s">
-        <v>508</v>
-      </c>
-      <c r="B366">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A367" s="49" t="s">
-        <v>509</v>
-      </c>
-      <c r="B367">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A368" s="49" t="s">
-        <v>561</v>
-      </c>
-      <c r="B368">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A369" s="49" t="s">
-        <v>510</v>
-      </c>
-      <c r="B369">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A370" s="49" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A371" s="49">
+      <c r="A357" s="49">
         <v>2180</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E42:F117" xr:uid="{E4BFA52B-35C8-FA46-8087-D26AF799193A}"/>
-  <mergeCells count="10">
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A35"/>
+  <autoFilter ref="E28:F103" xr:uid="{E4BFA52B-35C8-FA46-8087-D26AF799193A}"/>
+  <mergeCells count="7">
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
@@ -8757,15 +8157,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A4C953-37ED-1E40-9061-1998489E7FF8}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H55"/>
+      <selection activeCell="B1" sqref="B1:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>562</v>
       </c>
@@ -8782,109 +8182,64 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
-      <c r="K1" s="48" t="s">
-        <v>357</v>
-      </c>
-      <c r="L1" s="48" t="s">
-        <v>358</v>
-      </c>
-      <c r="M1" s="48" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C2">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D2">
-        <v>160</v>
-      </c>
-      <c r="K2">
         <v>170</v>
       </c>
-      <c r="L2">
-        <v>170</v>
-      </c>
-      <c r="M2">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C3">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D3">
-        <v>140</v>
-      </c>
-      <c r="K3">
         <v>150</v>
       </c>
-      <c r="L3">
-        <v>150</v>
-      </c>
-      <c r="M3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C4">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D4">
-        <v>120</v>
-      </c>
-      <c r="K4">
         <v>140</v>
       </c>
-      <c r="L4">
-        <v>140</v>
-      </c>
-      <c r="M4">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="C5">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>130</v>
-      </c>
-      <c r="K5">
         <v>90</v>
       </c>
-      <c r="L5">
-        <v>90</v>
-      </c>
-      <c r="M5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8897,64 +8252,36 @@
       <c r="D6">
         <v>120</v>
       </c>
-      <c r="K6">
-        <v>120</v>
-      </c>
-      <c r="L6">
-        <v>120</v>
-      </c>
-      <c r="M6">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C7">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D7">
-        <v>120</v>
-      </c>
-      <c r="K7">
         <v>130</v>
       </c>
-      <c r="L7">
-        <v>130</v>
-      </c>
-      <c r="M7">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="C8">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="D8">
-        <f>90+120</f>
-        <v>210</v>
-      </c>
-      <c r="K8">
         <v>160</v>
       </c>
-      <c r="L8">
-        <v>160</v>
-      </c>
-      <c r="M8">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8967,109 +8294,64 @@
       <c r="D9">
         <v>170</v>
       </c>
-      <c r="K9">
-        <v>170</v>
-      </c>
-      <c r="L9">
-        <v>170</v>
-      </c>
-      <c r="M9">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C10">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="D10">
-        <v>150</v>
-      </c>
-      <c r="K10">
         <v>120</v>
       </c>
-      <c r="L10">
-        <v>120</v>
-      </c>
-      <c r="M10">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C11">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="D11">
-        <v>150</v>
-      </c>
-      <c r="K11">
         <v>120</v>
       </c>
-      <c r="L11">
-        <v>120</v>
-      </c>
-      <c r="M11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="C12">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="D12">
-        <v>150</v>
-      </c>
-      <c r="K12">
-        <v>70</v>
-      </c>
-      <c r="L12">
-        <v>170</v>
-      </c>
-      <c r="M12">
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C13">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D13">
-        <v>160</v>
-      </c>
-      <c r="K13">
         <v>150</v>
       </c>
-      <c r="L13">
-        <v>150</v>
-      </c>
-      <c r="M13">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9082,63 +8364,36 @@
       <c r="D14">
         <v>150</v>
       </c>
-      <c r="K14">
-        <v>150</v>
-      </c>
-      <c r="L14">
-        <v>150</v>
-      </c>
-      <c r="M14">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C15">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D15">
-        <v>120</v>
-      </c>
-      <c r="K15">
         <v>150</v>
       </c>
-      <c r="L15">
-        <v>150</v>
-      </c>
-      <c r="M15">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="C16">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D16">
-        <v>150</v>
-      </c>
-      <c r="K16">
-        <v>60</v>
-      </c>
-      <c r="L16">
-        <v>60</v>
-      </c>
-      <c r="M16">
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9151,40 +8406,22 @@
       <c r="D17">
         <v>170</v>
       </c>
-      <c r="K17">
-        <v>170</v>
-      </c>
-      <c r="L17">
-        <v>170</v>
-      </c>
-      <c r="M17">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C18">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D18">
-        <v>170</v>
-      </c>
-      <c r="K18">
         <v>70</v>
       </c>
-      <c r="L18">
-        <v>70</v>
-      </c>
-      <c r="M18">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9195,15 +8432,6 @@
         <v>120</v>
       </c>
       <c r="D19">
-        <v>120</v>
-      </c>
-      <c r="K19">
-        <v>120</v>
-      </c>
-      <c r="L19">
-        <v>120</v>
-      </c>
-      <c r="M19">
         <v>120</v>
       </c>
     </row>

--- a/ALLBIKEDATA.xlsx
+++ b/ALLBIKEDATA.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etinoelle/Documents/Project/Input Data Generator EB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F00AB8-813F-5E44-8222-1F9F5FF59253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0B775C-A4D5-B444-AEB0-EC5673663E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" activeTab="2" xr2:uid="{A302DBF0-B5E9-B84B-8EF7-166040813F3B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" activeTab="3" xr2:uid="{A302DBF0-B5E9-B84B-8EF7-166040813F3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Precedences" sheetId="1" r:id="rId1"/>
     <sheet name="Task Relations" sheetId="3" r:id="rId2"/>
-    <sheet name="OptResultAnalysis" sheetId="4" r:id="rId3"/>
-    <sheet name="Work Plan" sheetId="2" r:id="rId4"/>
+    <sheet name="Work Plan" sheetId="2" r:id="rId3"/>
+    <sheet name="Sequencing.py Data" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Task Relations'!$E$28:$F$103</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Work Plan'!$A$1:$O$342</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Work Plan'!$A$1:$O$342</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2463,12 +2463,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2478,6 +2472,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -2805,9 +2805,9 @@
     <col min="2" max="2" width="58.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="58.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="68" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" style="66" customWidth="1"/>
     <col min="10" max="10" width="58.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.5" style="68" customWidth="1"/>
+    <col min="11" max="11" width="25.5" style="66" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -2829,7 +2829,7 @@
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="67" t="s">
         <v>26</v>
       </c>
       <c r="H1" s="31" t="s">
@@ -2841,7 +2841,7 @@
       <c r="J1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="68" t="s">
         <v>26</v>
       </c>
       <c r="L1" s="16" t="s">
@@ -2855,7 +2855,7 @@
       <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="67"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="18">
         <v>70</v>
       </c>
@@ -2865,7 +2865,7 @@
       <c r="F2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="67"/>
+      <c r="G2" s="65"/>
       <c r="H2" s="18">
         <v>70</v>
       </c>
@@ -2875,7 +2875,7 @@
       <c r="J2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="67"/>
+      <c r="K2" s="65"/>
       <c r="L2" s="1">
         <v>70</v>
       </c>
@@ -2887,7 +2887,7 @@
       <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="67">
+      <c r="C3" s="65">
         <v>1100</v>
       </c>
       <c r="D3" s="18">
@@ -2899,7 +2899,7 @@
       <c r="F3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="67">
+      <c r="G3" s="65">
         <v>2100</v>
       </c>
       <c r="H3" s="18">
@@ -2911,7 +2911,7 @@
       <c r="J3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="67">
+      <c r="K3" s="65">
         <v>3100</v>
       </c>
       <c r="L3" s="1">
@@ -2925,7 +2925,7 @@
       <c r="B4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="65">
         <v>1110</v>
       </c>
       <c r="D4" s="18">
@@ -2937,7 +2937,7 @@
       <c r="F4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4" s="65">
         <v>2110</v>
       </c>
       <c r="H4" s="18">
@@ -2949,7 +2949,7 @@
       <c r="J4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="67">
+      <c r="K4" s="65">
         <v>3110</v>
       </c>
       <c r="L4" s="1">
@@ -2963,7 +2963,7 @@
       <c r="B5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5" s="65">
         <v>1120</v>
       </c>
       <c r="D5" s="18">
@@ -2975,7 +2975,7 @@
       <c r="F5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="67">
+      <c r="G5" s="65">
         <v>2120</v>
       </c>
       <c r="H5" s="18">
@@ -2987,7 +2987,7 @@
       <c r="J5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="67">
+      <c r="K5" s="65">
         <v>3120</v>
       </c>
       <c r="L5" s="1">
@@ -3001,7 +3001,7 @@
       <c r="B6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="67">
+      <c r="C6" s="65">
         <v>1140</v>
       </c>
       <c r="D6" s="18">
@@ -3013,7 +3013,7 @@
       <c r="F6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="65">
         <v>2140</v>
       </c>
       <c r="H6" s="18">
@@ -3025,7 +3025,7 @@
       <c r="J6" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="K6" s="67">
+      <c r="K6" s="65">
         <v>3140</v>
       </c>
       <c r="L6" s="1">
@@ -3039,7 +3039,7 @@
       <c r="B7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="67"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="18">
         <v>100</v>
       </c>
@@ -3049,7 +3049,7 @@
       <c r="F7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="67"/>
+      <c r="G7" s="65"/>
       <c r="H7" s="18">
         <v>100</v>
       </c>
@@ -3059,7 +3059,7 @@
       <c r="J7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="67">
+      <c r="K7" s="65">
         <v>3140</v>
       </c>
       <c r="L7" s="1">
@@ -3073,7 +3073,7 @@
       <c r="B8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="65" t="s">
         <v>564</v>
       </c>
       <c r="D8" s="18">
@@ -3085,7 +3085,7 @@
       <c r="F8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="65" t="s">
         <v>567</v>
       </c>
       <c r="H8" s="18">
@@ -3097,7 +3097,7 @@
       <c r="J8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="67"/>
+      <c r="K8" s="65"/>
       <c r="L8" s="1">
         <v>100</v>
       </c>
@@ -3109,7 +3109,7 @@
       <c r="B9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="65">
         <v>1110</v>
       </c>
       <c r="D9" s="18">
@@ -3121,7 +3121,7 @@
       <c r="F9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="67">
+      <c r="G9" s="65">
         <v>2110</v>
       </c>
       <c r="H9" s="18">
@@ -3133,7 +3133,7 @@
       <c r="J9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="67" t="s">
+      <c r="K9" s="65" t="s">
         <v>570</v>
       </c>
       <c r="L9" s="1">
@@ -3147,7 +3147,7 @@
       <c r="B10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="67">
+      <c r="C10" s="65">
         <v>1180</v>
       </c>
       <c r="D10" s="18">
@@ -3159,7 +3159,7 @@
       <c r="F10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="67">
+      <c r="G10" s="65">
         <v>2180</v>
       </c>
       <c r="H10" s="18">
@@ -3171,7 +3171,7 @@
       <c r="J10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="67">
+      <c r="K10" s="65">
         <v>3110</v>
       </c>
       <c r="L10" s="1">
@@ -3185,7 +3185,7 @@
       <c r="B11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="67">
+      <c r="C11" s="65">
         <v>1190</v>
       </c>
       <c r="D11" s="18">
@@ -3197,7 +3197,7 @@
       <c r="F11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="67">
+      <c r="G11" s="65">
         <v>2190</v>
       </c>
       <c r="H11" s="18">
@@ -3209,7 +3209,7 @@
       <c r="J11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="67">
+      <c r="K11" s="65">
         <v>3180</v>
       </c>
       <c r="L11" s="1">
@@ -3223,7 +3223,7 @@
       <c r="B12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="67"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="18">
         <v>90</v>
       </c>
@@ -3233,7 +3233,7 @@
       <c r="F12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="67"/>
+      <c r="G12" s="65"/>
       <c r="H12" s="18">
         <v>90</v>
       </c>
@@ -3243,7 +3243,7 @@
       <c r="J12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="67">
+      <c r="K12" s="65">
         <v>3190</v>
       </c>
       <c r="L12" s="1">
@@ -3257,7 +3257,7 @@
       <c r="B13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="67">
+      <c r="C13" s="65">
         <v>1190</v>
       </c>
       <c r="D13" s="18">
@@ -3269,7 +3269,7 @@
       <c r="F13" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="G13" s="67" t="s">
+      <c r="G13" s="65" t="s">
         <v>567</v>
       </c>
       <c r="H13" s="18">
@@ -3281,7 +3281,7 @@
       <c r="J13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="67"/>
+      <c r="K13" s="65"/>
       <c r="L13" s="1">
         <v>90</v>
       </c>
@@ -3293,7 +3293,7 @@
       <c r="B14" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="67">
+      <c r="C14" s="65">
         <v>1240</v>
       </c>
       <c r="D14" s="18">
@@ -3305,7 +3305,7 @@
       <c r="F14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="67">
+      <c r="G14" s="65">
         <v>2190</v>
       </c>
       <c r="H14" s="18">
@@ -3317,7 +3317,7 @@
       <c r="J14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="67">
+      <c r="K14" s="65">
         <v>3190</v>
       </c>
       <c r="L14" s="1">
@@ -3331,7 +3331,7 @@
       <c r="B15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="67">
+      <c r="C15" s="65">
         <v>1170</v>
       </c>
       <c r="D15" s="18">
@@ -3343,7 +3343,7 @@
       <c r="F15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="67">
+      <c r="G15" s="65">
         <v>2240</v>
       </c>
       <c r="H15" s="18">
@@ -3355,7 +3355,7 @@
       <c r="J15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="67">
+      <c r="K15" s="65">
         <v>3240</v>
       </c>
       <c r="L15" s="1">
@@ -3369,7 +3369,7 @@
       <c r="B16" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="67">
+      <c r="C16" s="65">
         <v>1260</v>
       </c>
       <c r="D16" s="18">
@@ -3381,7 +3381,7 @@
       <c r="F16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="67">
+      <c r="G16" s="65">
         <v>2170</v>
       </c>
       <c r="H16" s="18">
@@ -3393,7 +3393,7 @@
       <c r="J16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="67">
+      <c r="K16" s="65">
         <v>3170</v>
       </c>
       <c r="L16" s="1">
@@ -3407,7 +3407,7 @@
       <c r="B17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="67">
+      <c r="C17" s="65">
         <v>1100</v>
       </c>
       <c r="D17" s="18">
@@ -3419,7 +3419,7 @@
       <c r="F17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="67">
+      <c r="G17" s="65">
         <v>2260</v>
       </c>
       <c r="H17" s="18">
@@ -3431,7 +3431,7 @@
       <c r="J17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="67">
+      <c r="K17" s="65">
         <v>3260</v>
       </c>
       <c r="L17" s="1">
@@ -3445,7 +3445,7 @@
       <c r="B18" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="67">
+      <c r="C18" s="65">
         <v>1280</v>
       </c>
       <c r="D18" s="18">
@@ -3457,7 +3457,7 @@
       <c r="F18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="67">
+      <c r="G18" s="65">
         <v>2100</v>
       </c>
       <c r="H18" s="18">
@@ -3469,7 +3469,7 @@
       <c r="J18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="67">
+      <c r="K18" s="65">
         <v>3100</v>
       </c>
       <c r="L18" s="1">
@@ -3483,7 +3483,7 @@
       <c r="B19" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="65" t="s">
         <v>565</v>
       </c>
       <c r="D19" s="18">
@@ -3495,7 +3495,7 @@
       <c r="F19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="67">
+      <c r="G19" s="65">
         <v>2280</v>
       </c>
       <c r="H19" s="18">
@@ -3507,7 +3507,7 @@
       <c r="J19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="67">
+      <c r="K19" s="65">
         <v>3280</v>
       </c>
       <c r="L19" s="1">
@@ -3521,7 +3521,7 @@
       <c r="B20" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="67">
+      <c r="C20" s="65">
         <v>1300</v>
       </c>
       <c r="D20" s="18">
@@ -3533,7 +3533,7 @@
       <c r="F20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="67" t="s">
+      <c r="G20" s="65" t="s">
         <v>568</v>
       </c>
       <c r="H20" s="18">
@@ -3545,7 +3545,7 @@
       <c r="J20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="67" t="s">
+      <c r="K20" s="65" t="s">
         <v>571</v>
       </c>
       <c r="L20" s="1">
@@ -3559,7 +3559,7 @@
       <c r="B21" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="67">
+      <c r="C21" s="65">
         <v>1310</v>
       </c>
       <c r="D21" s="18">
@@ -3571,7 +3571,7 @@
       <c r="F21" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="67">
+      <c r="G21" s="65">
         <v>2300</v>
       </c>
       <c r="H21" s="18">
@@ -3583,7 +3583,7 @@
       <c r="J21" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="67">
+      <c r="K21" s="65">
         <v>3300</v>
       </c>
       <c r="L21" s="1">
@@ -3597,7 +3597,7 @@
       <c r="B22" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="67">
+      <c r="C22" s="65">
         <v>1250</v>
       </c>
       <c r="D22" s="18">
@@ -3609,7 +3609,7 @@
       <c r="F22" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="67">
+      <c r="G22" s="65">
         <v>2310</v>
       </c>
       <c r="H22" s="18">
@@ -3621,7 +3621,7 @@
       <c r="J22" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="67">
+      <c r="K22" s="65">
         <v>3310</v>
       </c>
       <c r="L22" s="1">
@@ -3635,7 +3635,7 @@
       <c r="B23" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="65" t="s">
         <v>566</v>
       </c>
       <c r="D23" s="18">
@@ -3647,7 +3647,7 @@
       <c r="F23" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="67">
+      <c r="G23" s="65">
         <v>2250</v>
       </c>
       <c r="H23" s="18">
@@ -3659,7 +3659,7 @@
       <c r="J23" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="67">
+      <c r="K23" s="65">
         <v>3250</v>
       </c>
       <c r="L23" s="1">
@@ -3673,7 +3673,7 @@
       <c r="B24" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="67">
+      <c r="C24" s="65">
         <v>1350</v>
       </c>
       <c r="D24" s="18">
@@ -3685,7 +3685,7 @@
       <c r="F24" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="67" t="s">
+      <c r="G24" s="65" t="s">
         <v>569</v>
       </c>
       <c r="H24" s="18">
@@ -3697,7 +3697,7 @@
       <c r="J24" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="K24" s="67">
+      <c r="K24" s="65">
         <v>3140</v>
       </c>
       <c r="L24" s="1">
@@ -3711,7 +3711,7 @@
       <c r="B25" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="67">
+      <c r="C25" s="65">
         <v>1360</v>
       </c>
       <c r="D25" s="18">
@@ -3723,7 +3723,7 @@
       <c r="F25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="67">
+      <c r="G25" s="65">
         <v>2350</v>
       </c>
       <c r="H25" s="18">
@@ -3735,7 +3735,7 @@
       <c r="J25" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="67" t="s">
+      <c r="K25" s="65" t="s">
         <v>572</v>
       </c>
       <c r="L25" s="1">
@@ -3743,14 +3743,14 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="68"/>
+      <c r="C26" s="66"/>
       <c r="E26" s="25">
         <v>2370</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="67">
+      <c r="G26" s="65">
         <v>2360</v>
       </c>
       <c r="H26" s="18">
@@ -3762,7 +3762,7 @@
       <c r="J26" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="K26" s="67">
+      <c r="K26" s="65">
         <v>3350</v>
       </c>
       <c r="L26" s="1">
@@ -3776,7 +3776,7 @@
       <c r="J27" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K27" s="67">
+      <c r="K27" s="65">
         <v>3360</v>
       </c>
       <c r="L27" s="1">
@@ -3796,9 +3796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BFA52B-35C8-FA46-8087-D26AF799193A}">
   <dimension ref="A1:AH357"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
-    </sheetView>
+    <sheetView zoomScale="72" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3889,7 +3887,7 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="72" t="s">
         <v>357</v>
       </c>
       <c r="B2" s="37">
@@ -3966,7 +3964,7 @@
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A3" s="65"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -3994,7 +3992,7 @@
       <c r="AH3" s="55"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
+      <c r="A4" s="72"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -4022,7 +4020,7 @@
       <c r="AH4" s="55"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="72" t="s">
         <v>358</v>
       </c>
       <c r="B5" s="41">
@@ -4102,7 +4100,7 @@
       <c r="AH5" s="55"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
@@ -4133,7 +4131,7 @@
       <c r="AD6" s="49"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -4162,7 +4160,7 @@
       <c r="AD7" s="49"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="72" t="s">
         <v>359</v>
       </c>
       <c r="B8" s="39">
@@ -4241,7 +4239,7 @@
       <c r="AD8" s="49"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
       <c r="D9" s="39"/>
@@ -4279,7 +4277,7 @@
       <c r="AD9" s="49"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="42"/>
@@ -4307,28 +4305,28 @@
       <c r="AD10" s="49"/>
     </row>
     <row r="11" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="73" t="s">
         <v>646</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="73"/>
       <c r="U11" s="57"/>
       <c r="V11" s="57"/>
       <c r="W11" s="57"/>
@@ -4402,7 +4400,7 @@
       <c r="AD12" s="49"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="72" t="s">
         <v>357</v>
       </c>
       <c r="B13" s="37">
@@ -4467,7 +4465,7 @@
       <c r="AD13" s="49"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="36">
         <v>1160</v>
       </c>
@@ -4497,7 +4495,7 @@
       <c r="AD14" s="49"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
@@ -4531,7 +4529,7 @@
       <c r="AG15" s="52"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="72" t="s">
         <v>358</v>
       </c>
       <c r="B16" s="41">
@@ -4604,7 +4602,7 @@
       <c r="AG16" s="52"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="36">
         <v>2160</v>
       </c>
@@ -4648,7 +4646,7 @@
       <c r="AG17" s="52"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -4683,7 +4681,7 @@
       <c r="AG18" s="52"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="72" t="s">
         <v>359</v>
       </c>
       <c r="B19" s="39">
@@ -4728,7 +4726,7 @@
       <c r="O19" s="44">
         <v>3290</v>
       </c>
-      <c r="P19" s="72">
+      <c r="P19" s="70">
         <v>3130</v>
       </c>
       <c r="Q19" s="44">
@@ -4756,7 +4754,7 @@
       <c r="AG19" s="52"/>
     </row>
     <row r="20" spans="1:34" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="65"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="36">
         <v>3160</v>
       </c>
@@ -4773,7 +4771,7 @@
       <c r="I20" s="36"/>
       <c r="J20" s="53"/>
       <c r="K20" s="53"/>
-      <c r="L20" s="71">
+      <c r="L20" s="69">
         <v>3340</v>
       </c>
       <c r="M20" s="36">
@@ -4791,7 +4789,7 @@
       <c r="AH20"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A21" s="65"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="42"/>
@@ -5418,7 +5416,7 @@
       <c r="I44">
         <v>170</v>
       </c>
-      <c r="W44" s="73"/>
+      <c r="W44" s="71"/>
     </row>
     <row r="45" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E45" s="49" t="s">
@@ -8156,291 +8154,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A4C953-37ED-1E40-9061-1998489E7FF8}">
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>562</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>357</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>358</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>359</v>
-      </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>170</v>
-      </c>
-      <c r="C2">
-        <v>170</v>
-      </c>
-      <c r="D2">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>150</v>
-      </c>
-      <c r="C3">
-        <v>150</v>
-      </c>
-      <c r="D3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>140</v>
-      </c>
-      <c r="C4">
-        <v>140</v>
-      </c>
-      <c r="D4">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>90</v>
-      </c>
-      <c r="C5">
-        <v>90</v>
-      </c>
-      <c r="D5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>120</v>
-      </c>
-      <c r="C6">
-        <v>120</v>
-      </c>
-      <c r="D6">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>130</v>
-      </c>
-      <c r="C7">
-        <v>130</v>
-      </c>
-      <c r="D7">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>160</v>
-      </c>
-      <c r="C8">
-        <v>160</v>
-      </c>
-      <c r="D8">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>170</v>
-      </c>
-      <c r="C9">
-        <v>170</v>
-      </c>
-      <c r="D9">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>120</v>
-      </c>
-      <c r="C10">
-        <v>120</v>
-      </c>
-      <c r="D10">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>120</v>
-      </c>
-      <c r="C11">
-        <v>120</v>
-      </c>
-      <c r="D11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>70</v>
-      </c>
-      <c r="C12">
-        <v>170</v>
-      </c>
-      <c r="D12">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>150</v>
-      </c>
-      <c r="C13">
-        <v>150</v>
-      </c>
-      <c r="D13">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>150</v>
-      </c>
-      <c r="C14">
-        <v>150</v>
-      </c>
-      <c r="D14">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>150</v>
-      </c>
-      <c r="C15">
-        <v>150</v>
-      </c>
-      <c r="D15">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>60</v>
-      </c>
-      <c r="C16">
-        <v>60</v>
-      </c>
-      <c r="D16">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>170</v>
-      </c>
-      <c r="C17">
-        <v>170</v>
-      </c>
-      <c r="D17">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>70</v>
-      </c>
-      <c r="C18">
-        <v>70</v>
-      </c>
-      <c r="D18">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>120</v>
-      </c>
-      <c r="C19">
-        <v>120</v>
-      </c>
-      <c r="D19">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92BEA22-9453-AA49-8BF7-B65A69C64FD2}">
   <dimension ref="A1:O363"/>
   <sheetViews>
@@ -23067,4 +22780,289 @@
   <autoFilter ref="A1:O342" xr:uid="{62066044-6637-0A4D-9B78-2B2267B1EDEF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A4C953-37ED-1E40-9061-1998489E7FF8}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>359</v>
+      </c>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>170</v>
+      </c>
+      <c r="C2">
+        <v>170</v>
+      </c>
+      <c r="D2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>150</v>
+      </c>
+      <c r="C3">
+        <v>150</v>
+      </c>
+      <c r="D3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>140</v>
+      </c>
+      <c r="C4">
+        <v>140</v>
+      </c>
+      <c r="D4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>90</v>
+      </c>
+      <c r="C5">
+        <v>90</v>
+      </c>
+      <c r="D5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>120</v>
+      </c>
+      <c r="C6">
+        <v>120</v>
+      </c>
+      <c r="D6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>130</v>
+      </c>
+      <c r="C7">
+        <v>130</v>
+      </c>
+      <c r="D7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>160</v>
+      </c>
+      <c r="C8">
+        <v>160</v>
+      </c>
+      <c r="D8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>170</v>
+      </c>
+      <c r="C9">
+        <v>170</v>
+      </c>
+      <c r="D9">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>120</v>
+      </c>
+      <c r="C10">
+        <v>120</v>
+      </c>
+      <c r="D10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>120</v>
+      </c>
+      <c r="C11">
+        <v>120</v>
+      </c>
+      <c r="D11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>70</v>
+      </c>
+      <c r="C12">
+        <v>170</v>
+      </c>
+      <c r="D12">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>150</v>
+      </c>
+      <c r="C13">
+        <v>150</v>
+      </c>
+      <c r="D13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>150</v>
+      </c>
+      <c r="C14">
+        <v>150</v>
+      </c>
+      <c r="D14">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>150</v>
+      </c>
+      <c r="C15">
+        <v>150</v>
+      </c>
+      <c r="D15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>60</v>
+      </c>
+      <c r="D16">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>170</v>
+      </c>
+      <c r="C17">
+        <v>170</v>
+      </c>
+      <c r="D17">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>70</v>
+      </c>
+      <c r="C18">
+        <v>70</v>
+      </c>
+      <c r="D18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>120</v>
+      </c>
+      <c r="C19">
+        <v>120</v>
+      </c>
+      <c r="D19">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>